--- a/meta_data/Daily_R.xlsx
+++ b/meta_data/Daily_R.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D555"/>
+  <dimension ref="A1:D560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,7 @@
         <v>43200</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01590035975664511</v>
+        <v>0.01590034683169815</v>
       </c>
       <c r="C2" t="n">
         <v>0.001495452219556048</v>
@@ -413,13 +413,13 @@
         <v>43201</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.005242255941374943</v>
+        <v>-0.005242053239332643</v>
       </c>
       <c r="C3" t="n">
         <v>0.001614643914551683</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.003547226924457414</v>
+        <v>-0.003547226924457525</v>
       </c>
     </row>
     <row r="4">
@@ -427,7 +427,7 @@
         <v>43202</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008227111123041279</v>
+        <v>0.008227100939546738</v>
       </c>
       <c r="C4" t="n">
         <v>-0.003812583346397336</v>
@@ -441,13 +441,13 @@
         <v>43203</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.002933098186663888</v>
+        <v>-0.002933291288432417</v>
       </c>
       <c r="C5" t="n">
         <v>0.001138274908471404</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001927084702748383</v>
+        <v>-0.001927084702748272</v>
       </c>
     </row>
     <row r="6">
@@ -455,13 +455,13 @@
         <v>43206</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008221733833538492</v>
+        <v>0.008221853621146812</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001768497119589041</v>
+        <v>0.001768497119588819</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006678754988842517</v>
+        <v>0.006678754988842295</v>
       </c>
     </row>
     <row r="7">
@@ -469,13 +469,13 @@
         <v>43207</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01069844765943418</v>
+        <v>0.01069834117685927</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003884788850901266</v>
+        <v>0.003884788850901488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009132569191076856</v>
+        <v>0.009132569191077078</v>
       </c>
     </row>
     <row r="8">
@@ -483,7 +483,7 @@
         <v>43208</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0007402650180390183</v>
+        <v>0.0007402735979470433</v>
       </c>
       <c r="C8" t="n">
         <v>-0.005596498007471418</v>
@@ -497,7 +497,7 @@
         <v>43209</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.005547542138160345</v>
+        <v>-0.005547414337477298</v>
       </c>
       <c r="C9" t="n">
         <v>-0.006835227599904292</v>
@@ -511,7 +511,7 @@
         <v>43210</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.008479412297463122</v>
+        <v>-0.008479419963467868</v>
       </c>
       <c r="C10" t="n">
         <v>-0.006694649412168241</v>
@@ -525,7 +525,7 @@
         <v>43213</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0001499494750394791</v>
+        <v>-0.0001499710103884225</v>
       </c>
       <c r="C11" t="n">
         <v>0.0001533081654059298</v>
@@ -539,13 +539,13 @@
         <v>43214</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.01346736781803158</v>
+        <v>-0.0134673594277377</v>
       </c>
       <c r="C12" t="n">
         <v>-0.005708202001745377</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.01172957227725324</v>
+        <v>-0.01172957227725335</v>
       </c>
     </row>
     <row r="13">
@@ -553,13 +553,13 @@
         <v>43215</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002471647537189308</v>
+        <v>0.002471516543259572</v>
       </c>
       <c r="C13" t="n">
         <v>-0.00433700387524083</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0007500109042986036</v>
+        <v>0.0007500109042988257</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         <v>43216</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01016573465138214</v>
+        <v>0.01016593243389441</v>
       </c>
       <c r="C14" t="n">
         <v>0.006840091996016984</v>
@@ -581,7 +581,7 @@
         <v>43217</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0009387555942018091</v>
+        <v>0.0009387338054798286</v>
       </c>
       <c r="C15" t="n">
         <v>0.005669114613622517</v>
@@ -595,13 +595,13 @@
         <v>43220</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.00769053050624422</v>
+        <v>-0.007690625239793654</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0001378889702622343</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.002562595049330763</v>
+        <v>-0.002562595049330652</v>
       </c>
     </row>
     <row r="17">
@@ -609,7 +609,7 @@
         <v>43221</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00177687498903947</v>
+        <v>0.001776872736530475</v>
       </c>
       <c r="C17" t="n">
         <v>-0.003824603703706186</v>
@@ -623,13 +623,13 @@
         <v>43222</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.006717483227022417</v>
+        <v>-0.006717409733114686</v>
       </c>
       <c r="C18" t="n">
         <v>-0.002003986209049069</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.005610370228840811</v>
+        <v>-0.0056103702288407</v>
       </c>
     </row>
     <row r="19">
@@ -637,7 +637,7 @@
         <v>43223</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.002203712245224034</v>
+        <v>-0.002203661684840218</v>
       </c>
       <c r="C19" t="n">
         <v>0.002804562524998166</v>
@@ -651,13 +651,13 @@
         <v>43224</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01294643956933749</v>
+        <v>0.01294630794625324</v>
       </c>
       <c r="C20" t="n">
         <v>0.00341305893467192</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01067976054765296</v>
+        <v>0.01067976054765318</v>
       </c>
     </row>
     <row r="21">
@@ -665,7 +665,7 @@
         <v>43227</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003383296185371408</v>
+        <v>0.003383330068164505</v>
       </c>
       <c r="C21" t="n">
         <v>0.001046963398592338</v>
@@ -693,13 +693,13 @@
         <v>43229</v>
       </c>
       <c r="B23" t="n">
-        <v>0.009665766680939148</v>
+        <v>0.00966595666475817</v>
       </c>
       <c r="C23" t="n">
         <v>-0.002502352683679376</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006685402044648514</v>
+        <v>0.006685402044648292</v>
       </c>
     </row>
     <row r="24">
@@ -707,13 +707,13 @@
         <v>43230</v>
       </c>
       <c r="B24" t="n">
-        <v>0.009350608585053339</v>
+        <v>0.009350521328270007</v>
       </c>
       <c r="C24" t="n">
         <v>0.007441047234209908</v>
       </c>
       <c r="D24" t="n">
-        <v>0.009016035558080837</v>
+        <v>0.009016035558081059</v>
       </c>
     </row>
     <row r="25">
@@ -721,13 +721,13 @@
         <v>43231</v>
       </c>
       <c r="B25" t="n">
-        <v>0.003051309180819182</v>
+        <v>0.003051238798732744</v>
       </c>
       <c r="C25" t="n">
         <v>0.002355710998111826</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00292342850402072</v>
+        <v>0.002923428504020498</v>
       </c>
     </row>
     <row r="26">
@@ -735,7 +735,7 @@
         <v>43234</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004764701480826718</v>
+        <v>0.0004766679287442637</v>
       </c>
       <c r="C26" t="n">
         <v>-0.003666793663076651</v>
@@ -749,7 +749,7 @@
         <v>43235</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.006886969034910977</v>
+        <v>-0.006887075348316537</v>
       </c>
       <c r="C27" t="n">
         <v>-0.009353598516869566</v>
@@ -763,13 +763,13 @@
         <v>43236</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004205031741770188</v>
+        <v>0.004205030181938228</v>
       </c>
       <c r="C28" t="n">
         <v>-0.001922228358564926</v>
       </c>
       <c r="D28" t="n">
-        <v>0.002715699847251729</v>
+        <v>0.002715699847251951</v>
       </c>
     </row>
     <row r="29">
@@ -777,7 +777,7 @@
         <v>43237</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0008447710733166233</v>
+        <v>-0.0008449098514914903</v>
       </c>
       <c r="C29" t="n">
         <v>-0.003727676845628358</v>
@@ -791,13 +791,13 @@
         <v>43238</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.002499993268429022</v>
+        <v>-0.002500065936191349</v>
       </c>
       <c r="C30" t="n">
         <v>0.005603433652072054</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0004969605597776594</v>
+        <v>-0.0004969605597777704</v>
       </c>
     </row>
     <row r="31">
@@ -805,7 +805,7 @@
         <v>43241</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007518551748346997</v>
+        <v>0.007518643252769254</v>
       </c>
       <c r="C31" t="n">
         <v>0.001762241923182639</v>
@@ -819,7 +819,7 @@
         <v>43242</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.002780150635402401</v>
+        <v>-0.002780269916072652</v>
       </c>
       <c r="C32" t="n">
         <v>-0.0016057131112307</v>
@@ -833,7 +833,7 @@
         <v>43243</v>
       </c>
       <c r="B33" t="n">
-        <v>0.002751183156525933</v>
+        <v>0.00275129532406092</v>
       </c>
       <c r="C33" t="n">
         <v>0.00564688081681064</v>
@@ -847,7 +847,7 @@
         <v>43244</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.002048571804953636</v>
+        <v>-0.002048566050420892</v>
       </c>
       <c r="C34" t="n">
         <v>0.00526168722746978</v>
@@ -861,13 +861,13 @@
         <v>43245</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.002382675680241098</v>
+        <v>-0.002382607908996166</v>
       </c>
       <c r="C35" t="n">
-        <v>0.003978608057650934</v>
+        <v>0.003978608057651156</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0008004573446988017</v>
+        <v>-0.0008004573446986907</v>
       </c>
     </row>
     <row r="36">
@@ -875,10 +875,10 @@
         <v>43249</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.01150102867172224</v>
+        <v>-0.01150120568936331</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01347025862004325</v>
+        <v>0.01347025862004303</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005294656348114102</v>
@@ -889,13 +889,13 @@
         <v>43250</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01334471966582445</v>
+        <v>0.01334471309732057</v>
       </c>
       <c r="C37" t="n">
         <v>-0.002418654080050708</v>
       </c>
       <c r="D37" t="n">
-        <v>0.009450927800811693</v>
+        <v>0.009450927800811471</v>
       </c>
     </row>
     <row r="38">
@@ -903,7 +903,7 @@
         <v>43251</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.006125905138810713</v>
+        <v>-0.006125763775980455</v>
       </c>
       <c r="C38" t="n">
         <v>-0.002293433113967569</v>
@@ -917,7 +917,7 @@
         <v>43252</v>
       </c>
       <c r="B39" t="n">
-        <v>0.009817685237102004</v>
+        <v>0.009817571622058799</v>
       </c>
       <c r="C39" t="n">
         <v>-0.003643112314457131</v>
@@ -931,13 +931,13 @@
         <v>43255</v>
       </c>
       <c r="B40" t="n">
-        <v>0.004751417265966376</v>
+        <v>0.004751515614844747</v>
       </c>
       <c r="C40" t="n">
         <v>-0.003173504778521075</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.001797464268339155</v>
+        <v>-0.001797464268338822</v>
       </c>
     </row>
     <row r="41">
@@ -945,13 +945,13 @@
         <v>43256</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0007275817077921292</v>
+        <v>0.0007275900692828594</v>
       </c>
       <c r="C41" t="n">
         <v>0.002877232432418886</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002955480289696721</v>
+        <v>0.002955480289696499</v>
       </c>
     </row>
     <row r="42">
@@ -959,7 +959,7 @@
         <v>43257</v>
       </c>
       <c r="B42" t="n">
-        <v>0.008360551588295139</v>
+        <v>0.008360564801157766</v>
       </c>
       <c r="C42" t="n">
         <v>0.001946294657516612</v>
@@ -973,7 +973,7 @@
         <v>43258</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0001081426818923055</v>
+        <v>-0.0001080457286305089</v>
       </c>
       <c r="C43" t="n">
         <v>0.001297418300715947</v>
@@ -987,7 +987,7 @@
         <v>43259</v>
       </c>
       <c r="B44" t="n">
-        <v>0.002956366364978666</v>
+        <v>0.002956289630627392</v>
       </c>
       <c r="C44" t="n">
         <v>0.001401700966378039</v>
@@ -1001,7 +1001,7 @@
         <v>43262</v>
       </c>
       <c r="B45" t="n">
-        <v>0.001330008677308345</v>
+        <v>0.001329887675323777</v>
       </c>
       <c r="C45" t="n">
         <v>0.001495276488259867</v>
@@ -1015,7 +1015,7 @@
         <v>43263</v>
       </c>
       <c r="B46" t="n">
-        <v>0.001292417692044592</v>
+        <v>0.00129263769973881</v>
       </c>
       <c r="C46" t="n">
         <v>-0.002080636940196223</v>
@@ -1029,7 +1029,7 @@
         <v>43264</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.003190931469921554</v>
+        <v>-0.003191012761878621</v>
       </c>
       <c r="C47" t="n">
         <v>0.001502860241453075</v>
@@ -1043,13 +1043,13 @@
         <v>43265</v>
       </c>
       <c r="B48" t="n">
-        <v>0.002517757832265169</v>
+        <v>0.002517609677951486</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001655512183119656</v>
+        <v>0.001655512183119434</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001804906026120712</v>
+        <v>0.00180490602612049</v>
       </c>
     </row>
     <row r="49">
@@ -1057,13 +1057,13 @@
         <v>43266</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.005740343846913945</v>
+        <v>-0.001275490943899904</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.01351067280842877</v>
+        <v>-0.01351067280842855</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.01308321148192415</v>
+        <v>-0.01308321148192393</v>
       </c>
     </row>
     <row r="50">
@@ -1071,7 +1071,7 @@
         <v>43269</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.002056822841899721</v>
+        <v>-0.002057022086270782</v>
       </c>
       <c r="C50" t="n">
         <v>-0.001811848511785619</v>
@@ -1085,13 +1085,13 @@
         <v>43270</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.003832794214460362</v>
+        <v>-0.003832829677125215</v>
       </c>
       <c r="C51" t="n">
         <v>-0.002678856252106065</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.002896005329183771</v>
+        <v>-0.002896005329183882</v>
       </c>
     </row>
     <row r="52">
@@ -1099,13 +1099,13 @@
         <v>43271</v>
       </c>
       <c r="B52" t="n">
-        <v>0.001705993541572142</v>
+        <v>0.001706142331306157</v>
       </c>
       <c r="C52" t="n">
         <v>-0.00299030336501982</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.002563207435150816</v>
+        <v>-0.002563207435150705</v>
       </c>
     </row>
     <row r="53">
@@ -1113,13 +1113,13 @@
         <v>43272</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.006268837115178229</v>
+        <v>-0.006268779394428405</v>
       </c>
       <c r="C53" t="n">
         <v>-0.002564953552550486</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.00306581222261626</v>
+        <v>-0.003065812222616371</v>
       </c>
     </row>
     <row r="54">
@@ -1127,7 +1127,7 @@
         <v>43273</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001823220601680604</v>
+        <v>0.001823246063214506</v>
       </c>
       <c r="C54" t="n">
         <v>0.002166371905558462</v>
@@ -1141,7 +1141,7 @@
         <v>43276</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.01361283528904726</v>
+        <v>-0.01361318075146662</v>
       </c>
       <c r="C55" t="n">
         <v>-0.005522554036911931</v>
@@ -1155,7 +1155,7 @@
         <v>43277</v>
       </c>
       <c r="B56" t="n">
-        <v>0.002214044662419281</v>
+        <v>0.002214241187837572</v>
       </c>
       <c r="C56" t="n">
         <v>-0.003481975352956246</v>
@@ -1169,7 +1169,7 @@
         <v>43278</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.008284241345497068</v>
+        <v>-0.008284358102493295</v>
       </c>
       <c r="C57" t="n">
         <v>-0.005910211490773309</v>
@@ -1183,7 +1183,7 @@
         <v>43279</v>
       </c>
       <c r="B58" t="n">
-        <v>0.005717499573139139</v>
+        <v>0.005717294550857571</v>
       </c>
       <c r="C58" t="n">
         <v>-0.001119669195808415</v>
@@ -1197,7 +1197,7 @@
         <v>43280</v>
       </c>
       <c r="B59" t="n">
-        <v>0.001439640111376931</v>
+        <v>0.001440122540483747</v>
       </c>
       <c r="C59" t="n">
         <v>0.002996065834251604</v>
@@ -1211,7 +1211,7 @@
         <v>43283</v>
       </c>
       <c r="B60" t="n">
-        <v>0.002137962897653506</v>
+        <v>0.002137770722861588</v>
       </c>
       <c r="C60" t="n">
         <v>-0.007037014486513282</v>
@@ -1225,7 +1225,7 @@
         <v>43284</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.003531198068140437</v>
+        <v>-0.003531181301167493</v>
       </c>
       <c r="C61" t="n">
         <v>0.003426598901785427</v>
@@ -1239,7 +1239,7 @@
         <v>43286</v>
       </c>
       <c r="B62" t="n">
-        <v>0.008157960520008728</v>
+        <v>0.008157891560809141</v>
       </c>
       <c r="C62" t="n">
         <v>0.004453049405120479</v>
@@ -1253,7 +1253,7 @@
         <v>43287</v>
       </c>
       <c r="B63" t="n">
-        <v>0.008458233679000338</v>
+        <v>0.008458222894523989</v>
       </c>
       <c r="C63" t="n">
         <v>0.004785825931451493</v>
@@ -1267,7 +1267,7 @@
         <v>43290</v>
       </c>
       <c r="B64" t="n">
-        <v>0.009004358245014412</v>
+        <v>0.009004566132159525</v>
       </c>
       <c r="C64" t="n">
         <v>-0.0002810988132968539</v>
@@ -1281,13 +1281,13 @@
         <v>43291</v>
       </c>
       <c r="B65" t="n">
-        <v>0.003598416775685473</v>
+        <v>0.003598124420106198</v>
       </c>
       <c r="C65" t="n">
-        <v>0.001251972904628529</v>
+        <v>0.001251972904628751</v>
       </c>
       <c r="D65" t="n">
-        <v>0.001401075576700661</v>
+        <v>0.001401075576700883</v>
       </c>
     </row>
     <row r="66">
@@ -1295,13 +1295,13 @@
         <v>43292</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.007314480421534315</v>
+        <v>-0.007314194533787463</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.0005638316246656672</v>
+        <v>-0.0005638316246657782</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0006643570482145478</v>
+        <v>-0.0006643570482147698</v>
       </c>
     </row>
     <row r="67">
@@ -1309,7 +1309,7 @@
         <v>43293</v>
       </c>
       <c r="B67" t="n">
-        <v>0.009065989664189781</v>
+        <v>0.009065961941395397</v>
       </c>
       <c r="C67" t="n">
         <v>0.00320712657150235</v>
@@ -1323,7 +1323,7 @@
         <v>43294</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0007874905127547465</v>
+        <v>0.0007873971909808284</v>
       </c>
       <c r="C68" t="n">
         <v>0.001650502604064075</v>
@@ -1337,7 +1337,7 @@
         <v>43297</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.0008941664697397454</v>
+        <v>-0.0008941790826353849</v>
       </c>
       <c r="C69" t="n">
         <v>-0.002555042855013845</v>
@@ -1351,7 +1351,7 @@
         <v>43298</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004045267049569379</v>
+        <v>0.004045247592583731</v>
       </c>
       <c r="C70" t="n">
         <v>0.0004456720628380761</v>
@@ -1365,13 +1365,13 @@
         <v>43299</v>
       </c>
       <c r="B71" t="n">
-        <v>0.002103598728287359</v>
+        <v>0.002103600782362273</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.001535537393217101</v>
+        <v>-0.001535537393217323</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.001528751470448841</v>
+        <v>-0.001528751470449063</v>
       </c>
     </row>
     <row r="72">
@@ -1379,13 +1379,13 @@
         <v>43300</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.003771428050243144</v>
+        <v>-0.003771462943405387</v>
       </c>
       <c r="C72" t="n">
-        <v>0.002227972351861229</v>
+        <v>0.002227972351861451</v>
       </c>
       <c r="D72" t="n">
-        <v>0.002213791787573749</v>
+        <v>0.002213791787574193</v>
       </c>
     </row>
     <row r="73">
@@ -1393,7 +1393,7 @@
         <v>43301</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.00114288330078125</v>
+        <v>-0.001142728229638493</v>
       </c>
       <c r="C73" t="n">
         <v>-0.007710368999241712</v>
@@ -1407,13 +1407,13 @@
         <v>43304</v>
       </c>
       <c r="B74" t="n">
-        <v>0.001859337617520722</v>
+        <v>0.001859284762138356</v>
       </c>
       <c r="C74" t="n">
         <v>-0.006521845078350963</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.006534950500160064</v>
+        <v>-0.006534950500160175</v>
       </c>
     </row>
     <row r="75">
@@ -1421,7 +1421,7 @@
         <v>43305</v>
       </c>
       <c r="B75" t="n">
-        <v>0.005032023851196208</v>
+        <v>0.00503211798583417</v>
       </c>
       <c r="C75" t="n">
         <v>0.004039007436744901</v>
@@ -1435,13 +1435,13 @@
         <v>43306</v>
       </c>
       <c r="B76" t="n">
-        <v>0.008522511767707045</v>
+        <v>0.008522363822020023</v>
       </c>
       <c r="C76" t="n">
         <v>0.002282240664721602</v>
       </c>
       <c r="D76" t="n">
-        <v>0.002567699475280349</v>
+        <v>0.002567699475280127</v>
       </c>
     </row>
     <row r="77">
@@ -1449,13 +1449,13 @@
         <v>43307</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.002359119061639037</v>
+        <v>-0.002359252625784594</v>
       </c>
       <c r="C77" t="n">
         <v>-0.001891913645056253</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.00209992806607906</v>
+        <v>-0.002099928066078838</v>
       </c>
     </row>
     <row r="78">
@@ -1463,13 +1463,13 @@
         <v>43308</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.006776250917525312</v>
+        <v>-0.006776107591391261</v>
       </c>
       <c r="C78" t="n">
         <v>-0.001611616563845786</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.001817817556024726</v>
+        <v>-0.001817817556024837</v>
       </c>
     </row>
     <row r="79">
@@ -1477,13 +1477,13 @@
         <v>43311</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.005223513433882361</v>
+        <v>-0.005223483545801662</v>
       </c>
       <c r="C79" t="n">
         <v>-0.003744018251405912</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.004160554100673064</v>
+        <v>-0.004160554100673175</v>
       </c>
     </row>
     <row r="80">
@@ -1491,7 +1491,7 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>0.004929359903773976</v>
+        <v>0.004929348536599368</v>
       </c>
       <c r="C80" t="n">
         <v>0.005556713816740499</v>
@@ -1505,7 +1505,7 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.001670640326790742</v>
+        <v>-0.001670673070142641</v>
       </c>
       <c r="C81" t="n">
         <v>-0.006125147724040936</v>
@@ -1519,7 +1519,7 @@
         <v>43314</v>
       </c>
       <c r="B82" t="n">
-        <v>0.005447658536903388</v>
+        <v>0.005447730628357223</v>
       </c>
       <c r="C82" t="n">
         <v>0.0006862871772963519</v>
@@ -1533,7 +1533,7 @@
         <v>43315</v>
       </c>
       <c r="B83" t="n">
-        <v>0.004284823797982051</v>
+        <v>0.004284707445463221</v>
       </c>
       <c r="C83" t="n">
         <v>0.002844612411659897</v>
@@ -1547,7 +1547,7 @@
         <v>43318</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003667166863678648</v>
+        <v>0.003667170785126446</v>
       </c>
       <c r="C84" t="n">
         <v>-0.000801098633406272</v>
@@ -1561,7 +1561,7 @@
         <v>43319</v>
       </c>
       <c r="B85" t="n">
-        <v>0.003302318280826033</v>
+        <v>0.00330226742611829</v>
       </c>
       <c r="C85" t="n">
         <v>0.003120627134731269</v>
@@ -1575,7 +1575,7 @@
         <v>43320</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.0004201804146984067</v>
+        <v>-0.0004200389828189565</v>
       </c>
       <c r="C86" t="n">
         <v>0.0009640986837569088</v>
@@ -1589,7 +1589,7 @@
         <v>43321</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.00136616038160551</v>
+        <v>-0.001366172931072125</v>
       </c>
       <c r="C87" t="n">
         <v>-0.001053279973479371</v>
@@ -1603,7 +1603,7 @@
         <v>43322</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.006700121419427579</v>
+        <v>-0.006700020343582942</v>
       </c>
       <c r="C88" t="n">
         <v>-0.002455286166351378</v>
@@ -1617,7 +1617,7 @@
         <v>43325</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.003743457920909725</v>
+        <v>-0.003743604092484213</v>
       </c>
       <c r="C89" t="n">
         <v>-0.007272096056236577</v>
@@ -1631,7 +1631,7 @@
         <v>43326</v>
       </c>
       <c r="B90" t="n">
-        <v>0.006380672648083002</v>
+        <v>0.006380558543326741</v>
       </c>
       <c r="C90" t="n">
         <v>0.002556331820902091</v>
@@ -1645,7 +1645,7 @@
         <v>43327</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.007467401066449098</v>
+        <v>-0.007467135547098563</v>
       </c>
       <c r="C91" t="n">
         <v>-0.008288165893937327</v>
@@ -1659,7 +1659,7 @@
         <v>43328</v>
       </c>
       <c r="B92" t="n">
-        <v>0.008091414540329654</v>
+        <v>0.008091405804593475</v>
       </c>
       <c r="C92" t="n">
         <v>0.004575635045904303</v>
@@ -1673,7 +1673,7 @@
         <v>43329</v>
       </c>
       <c r="B93" t="n">
-        <v>0.003520383047928907</v>
+        <v>0.003520208794354048</v>
       </c>
       <c r="C93" t="n">
         <v>0.005728709215242933</v>
@@ -1687,7 +1687,7 @@
         <v>43332</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002139956059654554</v>
+        <v>0.002139993049309287</v>
       </c>
       <c r="C94" t="n">
         <v>0.003237026782068053</v>
@@ -1701,7 +1701,7 @@
         <v>43333</v>
       </c>
       <c r="B95" t="n">
-        <v>0.002345303597382071</v>
+        <v>0.002345320986295075</v>
       </c>
       <c r="C95" t="n">
         <v>0.002555158159205595</v>
@@ -1715,7 +1715,7 @@
         <v>43334</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.0005936401212901623</v>
+        <v>-0.0005936327977078859</v>
       </c>
       <c r="C96" t="n">
         <v>0.0005077995803666191</v>
@@ -1729,7 +1729,7 @@
         <v>43335</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.001327899028485951</v>
+        <v>-0.001327953929360438</v>
       </c>
       <c r="C97" t="n">
         <v>-0.004497178940809254</v>
@@ -1743,7 +1743,7 @@
         <v>43336</v>
       </c>
       <c r="B98" t="n">
-        <v>0.006018409214025293</v>
+        <v>0.006018392383056551</v>
       </c>
       <c r="C98" t="n">
         <v>0.01043415263645553</v>
@@ -1757,7 +1757,7 @@
         <v>43339</v>
       </c>
       <c r="B99" t="n">
-        <v>0.007895339071924296</v>
+        <v>0.007895480330467294</v>
       </c>
       <c r="C99" t="n">
         <v>0.006215175451709465</v>
@@ -1771,7 +1771,7 @@
         <v>43340</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0004831756816457798</v>
+        <v>0.0004830705674089624</v>
       </c>
       <c r="C100" t="n">
         <v>-0.0028181439536894</v>
@@ -1785,7 +1785,7 @@
         <v>43341</v>
       </c>
       <c r="B101" t="n">
-        <v>0.005380786031808721</v>
+        <v>0.005380844233942047</v>
       </c>
       <c r="C101" t="n">
         <v>0.005025885596500634</v>
@@ -1799,7 +1799,7 @@
         <v>43342</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.004048384619467865</v>
+        <v>-0.004048283628583348</v>
       </c>
       <c r="C102" t="n">
         <v>-0.004350757295964014</v>
@@ -1813,7 +1813,7 @@
         <v>43343</v>
       </c>
       <c r="B103" t="n">
-        <v>3.448076488428445e-05</v>
+        <v>3.422454560334728e-05</v>
       </c>
       <c r="C103" t="n">
         <v>-0.0004242277282621165</v>
@@ -1827,7 +1827,7 @@
         <v>43347</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.001722296869569861</v>
+        <v>-0.001722102701613054</v>
       </c>
       <c r="C104" t="n">
         <v>-0.003026111004565846</v>
@@ -1841,7 +1841,7 @@
         <v>43348</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.002691414326171322</v>
+        <v>-0.002691552704115416</v>
       </c>
       <c r="C105" t="n">
         <v>-0.0002870884054568812</v>
@@ -1855,7 +1855,7 @@
         <v>43349</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.003010051277936128</v>
+        <v>-0.00300994830361368</v>
       </c>
       <c r="C106" t="n">
         <v>-0.001059083184385412</v>
@@ -1869,7 +1869,7 @@
         <v>43350</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.001943356300239335</v>
+        <v>-0.001943365684206522</v>
       </c>
       <c r="C107" t="n">
         <v>-0.00223590907332516</v>
@@ -1883,7 +1883,7 @@
         <v>43353</v>
       </c>
       <c r="B108" t="n">
-        <v>0.001738525693285401</v>
+        <v>0.001738439805734928</v>
       </c>
       <c r="C108" t="n">
         <v>0.0007707761687074655</v>
@@ -1897,7 +1897,7 @@
         <v>43354</v>
       </c>
       <c r="B109" t="n">
-        <v>0.00329740253150773</v>
+        <v>0.003297424663740676</v>
       </c>
       <c r="C109" t="n">
         <v>0.002228094813946813</v>
@@ -1911,7 +1911,7 @@
         <v>43355</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0002421979836542756</v>
+        <v>0.0002422551383676572</v>
       </c>
       <c r="C110" t="n">
         <v>0.002619706078510253</v>
@@ -1925,7 +1925,7 @@
         <v>43356</v>
       </c>
       <c r="B111" t="n">
-        <v>0.005914469714849792</v>
+        <v>0.005914380585285434</v>
       </c>
       <c r="C111" t="n">
         <v>0.00355928643706882</v>
@@ -1939,7 +1939,7 @@
         <v>43357</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0001719847087860262</v>
+        <v>0.0001720115020686129</v>
       </c>
       <c r="C112" t="n">
         <v>0.0001037420878415851</v>
@@ -1953,7 +1953,7 @@
         <v>43360</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.005294308715177249</v>
+        <v>-0.005294336796906596</v>
       </c>
       <c r="C113" t="n">
         <v>-0.003186046818875576</v>
@@ -1967,7 +1967,7 @@
         <v>43361</v>
       </c>
       <c r="B114" t="n">
-        <v>0.005426167637001346</v>
+        <v>0.005426407955557292</v>
       </c>
       <c r="C114" t="n">
         <v>0.003266393352580499</v>
@@ -1981,7 +1981,7 @@
         <v>43362</v>
       </c>
       <c r="B115" t="n">
-        <v>0.001065613264210091</v>
+        <v>0.001065392095170372</v>
       </c>
       <c r="C115" t="n">
         <v>0.0006428487641925162</v>
@@ -1995,7 +1995,7 @@
         <v>43363</v>
       </c>
       <c r="B116" t="n">
-        <v>0.008103788687831124</v>
+        <v>0.008104014784513525</v>
       </c>
       <c r="C116" t="n">
         <v>0.004890809545557762</v>
@@ -2009,7 +2009,7 @@
         <v>43364</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.00541588803942275</v>
+        <v>-0.0009137386789550878</v>
       </c>
       <c r="C117" t="n">
         <v>-0.003279054942510906</v>
@@ -2023,7 +2023,7 @@
         <v>43367</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.003322035868162888</v>
+        <v>-0.003322055278341647</v>
       </c>
       <c r="C118" t="n">
         <v>-0.003001384028636034</v>
@@ -2037,7 +2037,7 @@
         <v>43368</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.0009277335711094098</v>
+        <v>-0.0009277208394179722</v>
       </c>
       <c r="C119" t="n">
         <v>0.001195356830978822</v>
@@ -2051,7 +2051,7 @@
         <v>43369</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.002992244599097162</v>
+        <v>-0.002992243446805351</v>
       </c>
       <c r="C120" t="n">
         <v>-0.000907065014360664</v>
@@ -2065,7 +2065,7 @@
         <v>43370</v>
       </c>
       <c r="B121" t="n">
-        <v>0.002794251224472006</v>
+        <v>0.002794216572332267</v>
       </c>
       <c r="C121" t="n">
         <v>0.002745170033078281</v>
@@ -2079,13 +2079,13 @@
         <v>43371</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0001031985243555866</v>
+        <v>0.0001030521704874237</v>
       </c>
       <c r="C122" t="n">
         <v>-0.001141588335190069</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.001143113446975041</v>
+        <v>-0.001143113446975152</v>
       </c>
     </row>
     <row r="123">
@@ -2093,7 +2093,7 @@
         <v>43374</v>
       </c>
       <c r="B123" t="n">
-        <v>0.003474166763153803</v>
+        <v>0.003474391565722902</v>
       </c>
       <c r="C123" t="n">
         <v>0.003197479147390547</v>
@@ -2107,7 +2107,7 @@
         <v>43375</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.0005827766130730467</v>
+        <v>-0.0005829636193657005</v>
       </c>
       <c r="C124" t="n">
         <v>-0.0005139487154860456</v>
@@ -2121,13 +2121,13 @@
         <v>43376</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0005487846873685738</v>
+        <v>0.0005490554371498972</v>
       </c>
       <c r="C125" t="n">
         <v>0.0005598724635049734</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0005788445211032389</v>
+        <v>0.0005788445211030169</v>
       </c>
     </row>
     <row r="126">
@@ -2135,7 +2135,7 @@
         <v>43377</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.007815709480859091</v>
+        <v>-0.007816009430858967</v>
       </c>
       <c r="C126" t="n">
         <v>-0.01387962496393524</v>
@@ -2149,7 +2149,7 @@
         <v>43378</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.00559699800830208</v>
+        <v>-0.005596929582031252</v>
       </c>
       <c r="C127" t="n">
         <v>-0.006836242507129664</v>
@@ -2177,7 +2177,7 @@
         <v>43382</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.001459291977785426</v>
+        <v>-0.001459092865826774</v>
       </c>
       <c r="C129" t="n">
         <v>0.002615950149694957</v>
@@ -2191,7 +2191,7 @@
         <v>43383</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.0316632091049844</v>
+        <v>-0.03166317193119951</v>
       </c>
       <c r="C130" t="n">
         <v>-0.03580188059729583</v>
@@ -2205,7 +2205,7 @@
         <v>43384</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.02202649886493904</v>
+        <v>-0.02202658777905923</v>
       </c>
       <c r="C131" t="n">
         <v>-0.02006224906753373</v>
@@ -2219,7 +2219,7 @@
         <v>43385</v>
       </c>
       <c r="B132" t="n">
-        <v>0.01388837341664212</v>
+        <v>0.01388831805551008</v>
       </c>
       <c r="C132" t="n">
         <v>0.02351479778745702</v>
@@ -2233,7 +2233,7 @@
         <v>43388</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.005617025700234342</v>
+        <v>-0.005617009971646994</v>
       </c>
       <c r="C133" t="n">
         <v>-0.01156911027339147</v>
@@ -2247,7 +2247,7 @@
         <v>43389</v>
       </c>
       <c r="B134" t="n">
-        <v>0.02186588969919388</v>
+        <v>0.0218658895485659</v>
       </c>
       <c r="C134" t="n">
         <v>0.02877601105173078</v>
@@ -2261,7 +2261,7 @@
         <v>43390</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0001783819958474761</v>
+        <v>0.0001782819457979752</v>
       </c>
       <c r="C135" t="n">
         <v>0.0004353534963885686</v>
@@ -2275,7 +2275,7 @@
         <v>43391</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.01444114150209809</v>
+        <v>-0.01444108037629059</v>
       </c>
       <c r="C136" t="n">
         <v>-0.01536849741420043</v>
@@ -2289,7 +2289,7 @@
         <v>43392</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.0005426696808848332</v>
+        <v>-0.0005425860294960401</v>
       </c>
       <c r="C137" t="n">
         <v>-0.004886704478974213</v>
@@ -2303,7 +2303,7 @@
         <v>43395</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.004488652432126696</v>
+        <v>-0.004489002492949546</v>
       </c>
       <c r="C138" t="n">
         <v>-0.0001580096870763548</v>
@@ -2317,7 +2317,7 @@
         <v>43396</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.005090812568079465</v>
+        <v>-0.005090537641574367</v>
       </c>
       <c r="C139" t="n">
         <v>-0.004624138666863176</v>
@@ -2331,7 +2331,7 @@
         <v>43397</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.03029852151299203</v>
+        <v>-0.0302985191668922</v>
       </c>
       <c r="C140" t="n">
         <v>-0.03880716764834824</v>
@@ -2345,7 +2345,7 @@
         <v>43398</v>
       </c>
       <c r="B141" t="n">
-        <v>0.01794052132009111</v>
+        <v>0.01794051018054153</v>
       </c>
       <c r="C141" t="n">
         <v>0.02343253406456691</v>
@@ -2359,13 +2359,13 @@
         <v>43399</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.01758738239099044</v>
+        <v>-0.01758734881822828</v>
       </c>
       <c r="C142" t="n">
         <v>-0.01560709043187114</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01563243976427608</v>
+        <v>-0.01563243976427631</v>
       </c>
     </row>
     <row r="143">
@@ -2373,13 +2373,13 @@
         <v>43402</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.00554027548749283</v>
+        <v>-0.005540227401863636</v>
       </c>
       <c r="C143" t="n">
         <v>-0.007034052628036136</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.007106020796166512</v>
+        <v>-0.007106020796166401</v>
       </c>
     </row>
     <row r="144">
@@ -2387,7 +2387,7 @@
         <v>43403</v>
       </c>
       <c r="B144" t="n">
-        <v>0.01481847903879686</v>
+        <v>0.01481834324681877</v>
       </c>
       <c r="C144" t="n">
         <v>0.01090892922837461</v>
@@ -2401,7 +2401,7 @@
         <v>43404</v>
       </c>
       <c r="B145" t="n">
-        <v>0.01068086785855079</v>
+        <v>0.01068092316011093</v>
       </c>
       <c r="C145" t="n">
         <v>0.01449946425358406</v>
@@ -2415,7 +2415,7 @@
         <v>43405</v>
       </c>
       <c r="B146" t="n">
-        <v>0.01064185356704846</v>
+        <v>0.01064184049277484</v>
       </c>
       <c r="C146" t="n">
         <v>0.01167850260789249</v>
@@ -2429,7 +2429,7 @@
         <v>43406</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.00592298292327838</v>
+        <v>-0.005922794214066275</v>
       </c>
       <c r="C147" t="n">
         <v>-0.01188878865835208</v>
@@ -2443,7 +2443,7 @@
         <v>43409</v>
       </c>
       <c r="B148" t="n">
-        <v>0.005516936699347153</v>
+        <v>0.005516790601140503</v>
       </c>
       <c r="C148" t="n">
         <v>0.004591912714623891</v>
@@ -2457,13 +2457,13 @@
         <v>43410</v>
       </c>
       <c r="B149" t="n">
-        <v>0.00632788461924861</v>
+        <v>0.006327855672138102</v>
       </c>
       <c r="C149" t="n">
-        <v>0.005612694376806227</v>
+        <v>0.005612694376806449</v>
       </c>
       <c r="D149" t="n">
-        <v>0.005653782378540084</v>
+        <v>0.005653782378540306</v>
       </c>
     </row>
     <row r="150">
@@ -2471,13 +2471,13 @@
         <v>43411</v>
       </c>
       <c r="B150" t="n">
-        <v>0.02140889340278101</v>
+        <v>0.02140884969413058</v>
       </c>
       <c r="C150" t="n">
-        <v>0.02829951140666087</v>
+        <v>0.02829951140666065</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02927692373478563</v>
+        <v>0.02927692373478541</v>
       </c>
     </row>
     <row r="151">
@@ -2485,7 +2485,7 @@
         <v>43412</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.001814916721473271</v>
+        <v>-0.001814933257347528</v>
       </c>
       <c r="C151" t="n">
         <v>-0.0001886598399100103</v>
@@ -2499,7 +2499,7 @@
         <v>43413</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.009768236129679144</v>
+        <v>-0.009768103164795823</v>
       </c>
       <c r="C152" t="n">
         <v>-0.009685971538367255</v>
@@ -2513,7 +2513,7 @@
         <v>43416</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.01868520398521585</v>
+        <v>-0.01868523920255198</v>
       </c>
       <c r="C153" t="n">
         <v>-0.02309287191512566</v>
@@ -2527,7 +2527,7 @@
         <v>43417</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.001871114766557384</v>
+        <v>-0.001871131661356239</v>
       </c>
       <c r="C154" t="n">
         <v>-0.002890103072289874</v>
@@ -2541,7 +2541,7 @@
         <v>43418</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.006836673411209282</v>
+        <v>-0.006836742373911338</v>
       </c>
       <c r="C155" t="n">
         <v>-0.00972724094440891</v>
@@ -2555,7 +2555,7 @@
         <v>43419</v>
       </c>
       <c r="B156" t="n">
-        <v>0.01043662723627087</v>
+        <v>0.01043669161015924</v>
       </c>
       <c r="C156" t="n">
         <v>0.01595346506238005</v>
@@ -2569,13 +2569,13 @@
         <v>43420</v>
       </c>
       <c r="B157" t="n">
-        <v>0.002600622669502395</v>
+        <v>0.002600567868004038</v>
       </c>
       <c r="C157" t="n">
         <v>0.004497234660853167</v>
       </c>
       <c r="D157" t="n">
-        <v>0.004384639491446407</v>
+        <v>0.004384639491446185</v>
       </c>
     </row>
     <row r="158">
@@ -2583,13 +2583,13 @@
         <v>43423</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.01691449492925258</v>
+        <v>-0.01691450683145306</v>
       </c>
       <c r="C158" t="n">
         <v>-0.02337730782394398</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.02490982348937942</v>
+        <v>-0.02490982348937931</v>
       </c>
     </row>
     <row r="159">
@@ -2597,13 +2597,13 @@
         <v>43424</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.01850617195605877</v>
+        <v>-0.01850602566961463</v>
       </c>
       <c r="C159" t="n">
         <v>-0.01540632775660655</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.01508923962102859</v>
+        <v>-0.0150892396210287</v>
       </c>
     </row>
     <row r="160">
@@ -2611,7 +2611,7 @@
         <v>43425</v>
       </c>
       <c r="B160" t="n">
-        <v>0.003407518980473464</v>
+        <v>0.003407476036641635</v>
       </c>
       <c r="C160" t="n">
         <v>0.0004949610844571239</v>
@@ -2625,7 +2625,7 @@
         <v>43427</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.006678700049227474</v>
+        <v>-0.006678775280447505</v>
       </c>
       <c r="C161" t="n">
         <v>-0.003651175991154498</v>
@@ -2639,13 +2639,13 @@
         <v>43430</v>
       </c>
       <c r="B162" t="n">
-        <v>0.01614434947768281</v>
+        <v>0.0161443251969514</v>
       </c>
       <c r="C162" t="n">
         <v>0.01558710853392786</v>
       </c>
       <c r="D162" t="n">
-        <v>0.01577985246364966</v>
+        <v>0.01577985246364988</v>
       </c>
     </row>
     <row r="163">
@@ -2653,7 +2653,7 @@
         <v>43431</v>
       </c>
       <c r="B163" t="n">
-        <v>0.00336446316442757</v>
+        <v>0.003364539371029326</v>
       </c>
       <c r="C163" t="n">
         <v>0.005731380968748923</v>
@@ -2667,13 +2667,13 @@
         <v>43432</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02302530855557593</v>
+        <v>0.02302518145227989</v>
       </c>
       <c r="C164" t="n">
-        <v>0.02614202128166432</v>
+        <v>0.0261420212816641</v>
       </c>
       <c r="D164" t="n">
-        <v>0.02916896851241324</v>
+        <v>0.02916896851241302</v>
       </c>
     </row>
     <row r="165">
@@ -2681,7 +2681,7 @@
         <v>43433</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.002185066702884388</v>
+        <v>-0.002184960232596385</v>
       </c>
       <c r="C165" t="n">
         <v>-0.002634656577685579</v>
@@ -2695,13 +2695,13 @@
         <v>43434</v>
       </c>
       <c r="B166" t="n">
-        <v>0.006095272805283535</v>
+        <v>0.00609520856955323</v>
       </c>
       <c r="C166" t="n">
         <v>0.01353503207244966</v>
       </c>
       <c r="D166" t="n">
-        <v>0.01513252666767428</v>
+        <v>0.01513252666767451</v>
       </c>
     </row>
     <row r="167">
@@ -2709,13 +2709,13 @@
         <v>43437</v>
       </c>
       <c r="B167" t="n">
-        <v>0.01324140749974066</v>
+        <v>0.01324148698910349</v>
       </c>
       <c r="C167" t="n">
         <v>0.007203140946653086</v>
       </c>
       <c r="D167" t="n">
-        <v>0.007873602916346201</v>
+        <v>0.007873602916345979</v>
       </c>
     </row>
     <row r="168">
@@ -2723,7 +2723,7 @@
         <v>43438</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.0324023923684417</v>
+        <v>-0.03240234448804799</v>
       </c>
       <c r="C168" t="n">
         <v>-0.02742284333456535</v>
@@ -2737,7 +2737,7 @@
         <v>43440</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.001517127334354764</v>
+        <v>-0.001517239008523596</v>
       </c>
       <c r="C169" t="n">
         <v>-0.001135826827162845</v>
@@ -2751,13 +2751,13 @@
         <v>43441</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.02323595129989798</v>
+        <v>-0.02323593891421637</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.02713071418732693</v>
+        <v>-0.02713071418732682</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.03003725236592791</v>
+        <v>-0.03003725236592769</v>
       </c>
     </row>
     <row r="171">
@@ -2765,13 +2765,13 @@
         <v>43444</v>
       </c>
       <c r="B171" t="n">
-        <v>0.001897029199475445</v>
+        <v>0.001897079240089294</v>
       </c>
       <c r="C171" t="n">
-        <v>0.006638331279900322</v>
+        <v>0.0066383312799001</v>
       </c>
       <c r="D171" t="n">
-        <v>0.008532825991885984</v>
+        <v>0.00853282599188554</v>
       </c>
     </row>
     <row r="172">
@@ -2779,7 +2779,7 @@
         <v>43445</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0002272032299377583</v>
+        <v>0.0002271203337496209</v>
       </c>
       <c r="C172" t="n">
         <v>0.001681179196021398</v>
@@ -2793,7 +2793,7 @@
         <v>43446</v>
       </c>
       <c r="B173" t="n">
-        <v>0.005035348304543079</v>
+        <v>0.005035291665816754</v>
       </c>
       <c r="C173" t="n">
         <v>0.006748449662600464</v>
@@ -2807,7 +2807,7 @@
         <v>43447</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.0003390203450144178</v>
+        <v>-0.0003390157354248827</v>
       </c>
       <c r="C174" t="n">
         <v>0.001028497908732051</v>
@@ -2821,13 +2821,13 @@
         <v>43448</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.01846476235687661</v>
+        <v>-0.01846470242352233</v>
       </c>
       <c r="C175" t="n">
         <v>-0.02440872224848989</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.02918644918098678</v>
+        <v>-0.02918644918098701</v>
       </c>
     </row>
     <row r="176">
@@ -2835,7 +2835,7 @@
         <v>43451</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.01961838440666234</v>
+        <v>-0.01961827282017388</v>
       </c>
       <c r="C176" t="n">
         <v>-0.01751788067965376</v>
@@ -2849,7 +2849,7 @@
         <v>43452</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.001096486445127008</v>
+        <v>-0.001096500251108696</v>
       </c>
       <c r="C177" t="n">
         <v>-0.000915943815825937</v>
@@ -2863,13 +2863,13 @@
         <v>43453</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.01497572250587025</v>
+        <v>-0.01497583496757327</v>
       </c>
       <c r="C178" t="n">
         <v>-0.0136081521481225</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.01624556638278074</v>
+        <v>-0.01624556638278085</v>
       </c>
     </row>
     <row r="179">
@@ -2877,13 +2877,13 @@
         <v>43454</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.01627794486710199</v>
+        <v>-0.01627779458121616</v>
       </c>
       <c r="C179" t="n">
         <v>-0.01343571314703085</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0158650579170837</v>
+        <v>-0.01586505791708359</v>
       </c>
     </row>
     <row r="180">
@@ -2891,7 +2891,7 @@
         <v>43455</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.02617632102857709</v>
+        <v>-0.02048962389143356</v>
       </c>
       <c r="C180" t="n">
         <v>-0.02086878945956916</v>
@@ -2905,7 +2905,7 @@
         <v>43458</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.02642293598250089</v>
+        <v>-0.02642293878367164</v>
       </c>
       <c r="C181" t="n">
         <v>-0.02211079658089476</v>
@@ -2919,7 +2919,7 @@
         <v>43460</v>
       </c>
       <c r="B182" t="n">
-        <v>0.05052486354407357</v>
+        <v>0.05052485706039023</v>
       </c>
       <c r="C182" t="n">
         <v>0.04283031361669698</v>
@@ -2933,7 +2933,7 @@
         <v>43461</v>
       </c>
       <c r="B183" t="n">
-        <v>0.007677369017256601</v>
+        <v>0.007677369523736112</v>
       </c>
       <c r="C183" t="n">
         <v>0.01138552588895703</v>
@@ -2947,7 +2947,7 @@
         <v>43462</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.001289987966181303</v>
+        <v>-0.001289906543038552</v>
       </c>
       <c r="C184" t="n">
         <v>5.523136321472499e-05</v>
@@ -2961,7 +2961,7 @@
         <v>43465</v>
       </c>
       <c r="B185" t="n">
-        <v>0.008758822074451313</v>
+        <v>0.008758803280141586</v>
       </c>
       <c r="C185" t="n">
         <v>0.01024929026510013</v>
@@ -2975,7 +2975,7 @@
         <v>43467</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001040310934462243</v>
+        <v>0.001040326347710352</v>
       </c>
       <c r="C186" t="n">
         <v>-0.006005978542994783</v>
@@ -2989,7 +2989,7 @@
         <v>43468</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.0238627633571435</v>
+        <v>-0.02386283269408129</v>
       </c>
       <c r="C187" t="n">
         <v>-0.02834977645222025</v>
@@ -3003,7 +3003,7 @@
         <v>43469</v>
       </c>
       <c r="B188" t="n">
-        <v>0.03349573093196577</v>
+        <v>0.03349571959187713</v>
       </c>
       <c r="C188" t="n">
         <v>0.03040756675664724</v>
@@ -3017,7 +3017,7 @@
         <v>43472</v>
       </c>
       <c r="B189" t="n">
-        <v>0.007884644787735123</v>
+        <v>0.007884669530726238</v>
       </c>
       <c r="C189" t="n">
         <v>0.005271651960065293</v>
@@ -3031,7 +3031,7 @@
         <v>43473</v>
       </c>
       <c r="B190" t="n">
-        <v>0.009395330155608693</v>
+        <v>0.009395267131866695</v>
       </c>
       <c r="C190" t="n">
         <v>0.006801800011161596</v>
@@ -3045,7 +3045,7 @@
         <v>43474</v>
       </c>
       <c r="B191" t="n">
-        <v>0.004673490899932837</v>
+        <v>0.004673607286806929</v>
       </c>
       <c r="C191" t="n">
         <v>0.006541851987516001</v>
@@ -3059,7 +3059,7 @@
         <v>43475</v>
       </c>
       <c r="B192" t="n">
-        <v>0.003527556141424492</v>
+        <v>0.003527519640140874</v>
       </c>
       <c r="C192" t="n">
         <v>0.002598702003803188</v>
@@ -3073,7 +3073,7 @@
         <v>43476</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003863029265659002</v>
+        <v>0.0003862675865974575</v>
       </c>
       <c r="C193" t="n">
         <v>0.0007688648310275603</v>
@@ -3087,7 +3087,7 @@
         <v>43479</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.006100922939288782</v>
+        <v>-0.00610086546695786</v>
       </c>
       <c r="C194" t="n">
         <v>-0.008044041417596515</v>
@@ -3101,7 +3101,7 @@
         <v>43480</v>
       </c>
       <c r="B195" t="n">
-        <v>0.01146080915688608</v>
+        <v>0.01146083963935617</v>
       </c>
       <c r="C195" t="n">
         <v>0.01316849576279422</v>
@@ -3115,7 +3115,7 @@
         <v>43481</v>
       </c>
       <c r="B196" t="n">
-        <v>0.002419838171857038</v>
+        <v>0.002419636997736326</v>
       </c>
       <c r="C196" t="n">
         <v>-0.0001305074519146743</v>
@@ -3129,7 +3129,7 @@
         <v>43482</v>
       </c>
       <c r="B197" t="n">
-        <v>0.007586713102152963</v>
+        <v>0.007586991379994617</v>
       </c>
       <c r="C197" t="n">
         <v>0.00631484492793466</v>
@@ -3143,13 +3143,13 @@
         <v>43483</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01331000955937402</v>
+        <v>0.01330990120094668</v>
       </c>
       <c r="C198" t="n">
         <v>0.01115828747759062</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0132698485318572</v>
+        <v>0.01326984853185742</v>
       </c>
     </row>
     <row r="199">
@@ -3157,13 +3157,13 @@
         <v>43487</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.01351049395392081</v>
+        <v>-0.0135105309325511</v>
       </c>
       <c r="C199" t="n">
         <v>-0.009553565008732501</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.01145361146319568</v>
+        <v>-0.0114536114631959</v>
       </c>
     </row>
     <row r="200">
@@ -3171,7 +3171,7 @@
         <v>43488</v>
       </c>
       <c r="B200" t="n">
-        <v>0.002092438336748943</v>
+        <v>0.002092484266927753</v>
       </c>
       <c r="C200" t="n">
         <v>0.001863036000135265</v>
@@ -3185,7 +3185,7 @@
         <v>43489</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0005314305793751873</v>
+        <v>0.0005313315036290196</v>
       </c>
       <c r="C201" t="n">
         <v>-0.0004066595261793537</v>
@@ -3199,7 +3199,7 @@
         <v>43490</v>
       </c>
       <c r="B202" t="n">
-        <v>0.008461434602986612</v>
+        <v>0.008461505359783841</v>
       </c>
       <c r="C202" t="n">
         <v>0.005984482140062308</v>
@@ -3213,7 +3213,7 @@
         <v>43493</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.007600229599478888</v>
+        <v>-0.007600204963691487</v>
       </c>
       <c r="C203" t="n">
         <v>-0.009772594492254538</v>
@@ -3227,13 +3227,13 @@
         <v>43494</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.001326986997864603</v>
+        <v>-0.001326982967665392</v>
       </c>
       <c r="C204" t="n">
         <v>-0.001866567200263458</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.00262958375278477</v>
+        <v>-0.002629583752784548</v>
       </c>
     </row>
     <row r="205">
@@ -3241,7 +3241,7 @@
         <v>43495</v>
       </c>
       <c r="B205" t="n">
-        <v>0.01583076896162728</v>
+        <v>0.01583069714986864</v>
       </c>
       <c r="C205" t="n">
         <v>0.01731508783728808</v>
@@ -3255,7 +3255,7 @@
         <v>43496</v>
       </c>
       <c r="B206" t="n">
-        <v>0.008782443461558946</v>
+        <v>0.008782564489106328</v>
       </c>
       <c r="C206" t="n">
         <v>0.004956538491273532</v>
@@ -3269,13 +3269,13 @@
         <v>43497</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004816244446338784</v>
+        <v>0.0004814869041849048</v>
       </c>
       <c r="C207" t="n">
         <v>0.002663226066563995</v>
       </c>
       <c r="D207" t="n">
-        <v>0.003231795734999876</v>
+        <v>0.003231795734999432</v>
       </c>
     </row>
     <row r="208">
@@ -3283,7 +3283,7 @@
         <v>43500</v>
       </c>
       <c r="B208" t="n">
-        <v>0.00703545106147067</v>
+        <v>0.007035492482728414</v>
       </c>
       <c r="C208" t="n">
         <v>0.004820499652578025</v>
@@ -3297,7 +3297,7 @@
         <v>43501</v>
       </c>
       <c r="B209" t="n">
-        <v>0.004191846904899633</v>
+        <v>0.004191757876801341</v>
       </c>
       <c r="C209" t="n">
         <v>0.003804580999924534</v>
@@ -3311,7 +3311,7 @@
         <v>43502</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.001318256540075524</v>
+        <v>-0.001318296471072193</v>
       </c>
       <c r="C210" t="n">
         <v>-6.457198600495762e-05</v>
@@ -3325,13 +3325,13 @@
         <v>43503</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.009532799292480909</v>
+        <v>-0.00953259989515687</v>
       </c>
       <c r="C211" t="n">
         <v>-0.00676187791274907</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.0120405153518125</v>
+        <v>-0.01204051535181228</v>
       </c>
     </row>
     <row r="212">
@@ -3339,13 +3339,13 @@
         <v>43504</v>
       </c>
       <c r="B212" t="n">
-        <v>0.001221539032990252</v>
+        <v>0.001221446805659956</v>
       </c>
       <c r="C212" t="n">
         <v>0.001994250061273961</v>
       </c>
       <c r="D212" t="n">
-        <v>0.003692524757737958</v>
+        <v>0.003692524757737736</v>
       </c>
     </row>
     <row r="213">
@@ -3353,7 +3353,7 @@
         <v>43507</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0005545675890391268</v>
+        <v>0.0005546313635380507</v>
       </c>
       <c r="C213" t="n">
         <v>-0.0003707765775148308</v>
@@ -3367,13 +3367,13 @@
         <v>43508</v>
       </c>
       <c r="B214" t="n">
-        <v>0.01285940081707992</v>
+        <v>0.01285938618986993</v>
       </c>
       <c r="C214" t="n">
         <v>0.009938647242859089</v>
       </c>
       <c r="D214" t="n">
-        <v>0.01314885825870049</v>
+        <v>0.01314885825870071</v>
       </c>
     </row>
     <row r="215">
@@ -3381,7 +3381,7 @@
         <v>43509</v>
       </c>
       <c r="B215" t="n">
-        <v>0.003246932181837555</v>
+        <v>0.003246810926330241</v>
       </c>
       <c r="C215" t="n">
         <v>0.0017847928233794</v>
@@ -3395,7 +3395,7 @@
         <v>43510</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.002218209292064076</v>
+        <v>-0.002218160975926853</v>
       </c>
       <c r="C216" t="n">
         <v>-0.0002681324832619625</v>
@@ -3409,7 +3409,7 @@
         <v>43511</v>
       </c>
       <c r="B217" t="n">
-        <v>0.01089725993573046</v>
+        <v>0.01089734217059048</v>
       </c>
       <c r="C217" t="n">
         <v>0.009075595371302203</v>
@@ -3423,13 +3423,13 @@
         <v>43515</v>
       </c>
       <c r="B218" t="n">
-        <v>0.001730580072748398</v>
+        <v>0.00173055568517975</v>
       </c>
       <c r="C218" t="n">
         <v>0.001286257299909499</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.001042200189316889</v>
+        <v>-0.001042200189317</v>
       </c>
     </row>
     <row r="219">
@@ -3437,7 +3437,7 @@
         <v>43516</v>
       </c>
       <c r="B219" t="n">
-        <v>0.002015467145194582</v>
+        <v>0.002015324106607298</v>
       </c>
       <c r="C219" t="n">
         <v>0.000859030745106848</v>
@@ -3451,13 +3451,13 @@
         <v>43517</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.003555871633034047</v>
+        <v>-0.003555832792356719</v>
       </c>
       <c r="C220" t="n">
         <v>-0.004214162751418615</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.004157089893225829</v>
+        <v>-0.004157089893225718</v>
       </c>
     </row>
     <row r="221">
@@ -3465,13 +3465,13 @@
         <v>43518</v>
       </c>
       <c r="B221" t="n">
-        <v>0.006199989681534534</v>
+        <v>0.006199955676584715</v>
       </c>
       <c r="C221" t="n">
         <v>0.006541263157840094</v>
       </c>
       <c r="D221" t="n">
-        <v>0.01062457296686348</v>
+        <v>0.01062457296686325</v>
       </c>
     </row>
     <row r="222">
@@ -3479,13 +3479,13 @@
         <v>43521</v>
       </c>
       <c r="B222" t="n">
-        <v>0.001361232160544712</v>
+        <v>0.001361350257774192</v>
       </c>
       <c r="C222" t="n">
         <v>0.0009553613500288272</v>
       </c>
       <c r="D222" t="n">
-        <v>0.002994864652016149</v>
+        <v>0.002994864652016371</v>
       </c>
     </row>
     <row r="223">
@@ -3493,7 +3493,7 @@
         <v>43522</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.0007154468278236212</v>
+        <v>-0.0007154905617286504</v>
       </c>
       <c r="C223" t="n">
         <v>0.000102624552789532</v>
@@ -3507,7 +3507,7 @@
         <v>43523</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.0004295972864135597</v>
+        <v>-0.0004294217562742477</v>
       </c>
       <c r="C224" t="n">
         <v>-0.00236447617257951</v>
@@ -3521,7 +3521,7 @@
         <v>43524</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.001862534056282194</v>
+        <v>-0.001862789753542605</v>
       </c>
       <c r="C225" t="n">
         <v>-0.002156499443404014</v>
@@ -3535,7 +3535,7 @@
         <v>43525</v>
       </c>
       <c r="B226" t="n">
-        <v>0.00624379502542</v>
+        <v>0.006243846986236737</v>
       </c>
       <c r="C226" t="n">
         <v>0.004100400747575339</v>
@@ -3549,13 +3549,13 @@
         <v>43528</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.003637470517106526</v>
+        <v>-0.003637335257292356</v>
       </c>
       <c r="C227" t="n">
         <v>-0.002715063840821319</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.008508343999292012</v>
+        <v>-0.008508343999292123</v>
       </c>
     </row>
     <row r="228">
@@ -3563,13 +3563,13 @@
         <v>43529</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.001360074771344802</v>
+        <v>-0.001360195727858549</v>
       </c>
       <c r="C228" t="n">
         <v>-0.0008696626081811099</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.001690562417637653</v>
+        <v>-0.001690562417637542</v>
       </c>
     </row>
     <row r="229">
@@ -3577,13 +3577,13 @@
         <v>43530</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.006056922471326743</v>
+        <v>-0.006056876131850157</v>
       </c>
       <c r="C229" t="n">
         <v>-0.004991220477636005</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.009703963538865712</v>
+        <v>-0.009703963538865823</v>
       </c>
     </row>
     <row r="230">
@@ -3591,13 +3591,13 @@
         <v>43531</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.008365401936209643</v>
+        <v>-0.008365502971221664</v>
       </c>
       <c r="C230" t="n">
         <v>-0.005470290340246264</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.008439724702304474</v>
+        <v>-0.008439724702304363</v>
       </c>
     </row>
     <row r="231">
@@ -3605,7 +3605,7 @@
         <v>43532</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.001999993785737557</v>
+        <v>-0.001999809454919981</v>
       </c>
       <c r="C231" t="n">
         <v>-0.0008400803892275599</v>
@@ -3619,7 +3619,7 @@
         <v>43535</v>
       </c>
       <c r="B232" t="n">
-        <v>0.01450124284136163</v>
+        <v>0.01450117257502258</v>
       </c>
       <c r="C232" t="n">
         <v>0.01136544117805172</v>
@@ -3633,7 +3633,7 @@
         <v>43536</v>
       </c>
       <c r="B233" t="n">
-        <v>0.00377096603850844</v>
+        <v>0.003770838704436146</v>
       </c>
       <c r="C233" t="n">
         <v>0.004451108138129101</v>
@@ -3647,7 +3647,7 @@
         <v>43537</v>
       </c>
       <c r="B234" t="n">
-        <v>0.006619221325115239</v>
+        <v>0.006619279900400564</v>
       </c>
       <c r="C234" t="n">
         <v>0.00535216207260758</v>
@@ -3661,7 +3661,7 @@
         <v>43538</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.0006397692405066998</v>
+        <v>-0.0006398428465569755</v>
       </c>
       <c r="C235" t="n">
         <v>-0.001386594328457225</v>
@@ -3675,7 +3675,7 @@
         <v>43539</v>
       </c>
       <c r="B236" t="n">
-        <v>0.0005334823393466508</v>
+        <v>0.004940782788582365</v>
       </c>
       <c r="C236" t="n">
         <v>0.002124452968929047</v>
@@ -3689,7 +3689,7 @@
         <v>43542</v>
       </c>
       <c r="B237" t="n">
-        <v>0.003625854120095474</v>
+        <v>0.003625715102783796</v>
       </c>
       <c r="C237" t="n">
         <v>0.002461067242829573</v>
@@ -3703,7 +3703,7 @@
         <v>43543</v>
       </c>
       <c r="B238" t="n">
-        <v>0.0002479627653750156</v>
+        <v>0.000248049586874118</v>
       </c>
       <c r="C238" t="n">
         <v>0.0006678881569219808</v>
@@ -3717,13 +3717,13 @@
         <v>43544</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.003009936692233784</v>
+        <v>-0.003009970471808663</v>
       </c>
       <c r="C239" t="n">
         <v>-0.0007519054196892805</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.00134859548743449</v>
+        <v>-0.001348595487434601</v>
       </c>
     </row>
     <row r="240">
@@ -3731,7 +3731,7 @@
         <v>43545</v>
       </c>
       <c r="B240" t="n">
-        <v>0.01129470194009645</v>
+        <v>0.01129480427893889</v>
       </c>
       <c r="C240" t="n">
         <v>0.009502073898028485</v>
@@ -3745,13 +3745,13 @@
         <v>43546</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.01924634135806379</v>
+        <v>-0.01924640624557139</v>
       </c>
       <c r="C241" t="n">
         <v>-0.01301876819686665</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.02030494645502801</v>
+        <v>-0.02030494645502778</v>
       </c>
     </row>
     <row r="242">
@@ -3759,13 +3759,13 @@
         <v>43549</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.0007519837245411817</v>
+        <v>-0.0007520202563839926</v>
       </c>
       <c r="C242" t="n">
         <v>-0.0006472739347033185</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.002404664436503223</v>
+        <v>-0.002404664436503334</v>
       </c>
     </row>
     <row r="243">
@@ -3773,13 +3773,13 @@
         <v>43550</v>
       </c>
       <c r="B243" t="n">
-        <v>0.007454080090922782</v>
+        <v>0.00745412323425552</v>
       </c>
       <c r="C243" t="n">
         <v>0.005430478738693401</v>
       </c>
       <c r="D243" t="n">
-        <v>0.005969724025915113</v>
+        <v>0.005969724025914891</v>
       </c>
     </row>
     <row r="244">
@@ -3787,13 +3787,13 @@
         <v>43551</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.005229088098448284</v>
+        <v>-0.005229124973282628</v>
       </c>
       <c r="C244" t="n">
         <v>-0.003025380941897748</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.006805625245913882</v>
+        <v>-0.006805625245913771</v>
       </c>
     </row>
     <row r="245">
@@ -3801,7 +3801,7 @@
         <v>43552</v>
       </c>
       <c r="B245" t="n">
-        <v>0.003790443703660942</v>
+        <v>0.003790514408260466</v>
       </c>
       <c r="C245" t="n">
         <v>0.00322099381505736</v>
@@ -3815,7 +3815,7 @@
         <v>43553</v>
       </c>
       <c r="B246" t="n">
-        <v>0.00630550954768297</v>
+        <v>0.006305553132057463</v>
       </c>
       <c r="C246" t="n">
         <v>0.005454713348515661</v>
@@ -3829,7 +3829,7 @@
         <v>43556</v>
       </c>
       <c r="B247" t="n">
-        <v>0.01185915978352053</v>
+        <v>0.01185908568931794</v>
       </c>
       <c r="C247" t="n">
         <v>0.006126308467989006</v>
@@ -3843,7 +3843,7 @@
         <v>43557</v>
       </c>
       <c r="B248" t="n">
-        <v>0.0004898529021275396</v>
+        <v>0.0004898055124130571</v>
       </c>
       <c r="C248" t="n">
         <v>0.0007042593794124308</v>
@@ -3857,7 +3857,7 @@
         <v>43558</v>
       </c>
       <c r="B249" t="n">
-        <v>0.001573634315174003</v>
+        <v>0.001573588476261899</v>
       </c>
       <c r="C249" t="n">
         <v>0.0003143351455070498</v>
@@ -3871,13 +3871,13 @@
         <v>43559</v>
       </c>
       <c r="B250" t="n">
-        <v>0.002653373411137775</v>
+        <v>0.002653435816076209</v>
       </c>
       <c r="C250" t="n">
         <v>0.001505930593819427</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.003077319669848144</v>
+        <v>-0.003077319669848033</v>
       </c>
     </row>
     <row r="251">
@@ -3885,7 +3885,7 @@
         <v>43560</v>
       </c>
       <c r="B251" t="n">
-        <v>0.00484022105957357</v>
+        <v>0.004840286132456612</v>
       </c>
       <c r="C251" t="n">
         <v>0.004384032297631624</v>
@@ -3899,7 +3899,7 @@
         <v>43563</v>
       </c>
       <c r="B252" t="n">
-        <v>0.0007623842226123858</v>
+        <v>0.0007623085516755342</v>
       </c>
       <c r="C252" t="n">
         <v>0.0002829475015075911</v>
@@ -3913,13 +3913,13 @@
         <v>43564</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.005124869083197199</v>
+        <v>-0.005124902577246117</v>
       </c>
       <c r="C253" t="n">
         <v>-0.003327123225431716</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.003582402836387777</v>
+        <v>-0.003582402836387888</v>
       </c>
     </row>
     <row r="254">
@@ -3927,7 +3927,7 @@
         <v>43565</v>
       </c>
       <c r="B254" t="n">
-        <v>0.003410988112685715</v>
+        <v>0.003411085871226567</v>
       </c>
       <c r="C254" t="n">
         <v>0.003009907931873057</v>
@@ -3941,7 +3941,7 @@
         <v>43566</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.0002775576241702515</v>
+        <v>-0.0002775315231005636</v>
       </c>
       <c r="C255" t="n">
         <v>-0.002068489376613414</v>
@@ -3955,7 +3955,7 @@
         <v>43567</v>
       </c>
       <c r="B256" t="n">
-        <v>0.00676594241992193</v>
+        <v>0.00676592203974381</v>
       </c>
       <c r="C256" t="n">
         <v>0.003010760235028664</v>
@@ -3969,7 +3969,7 @@
         <v>43570</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.0006548195444176634</v>
+        <v>-0.0006548624697186743</v>
       </c>
       <c r="C257" t="n">
         <v>0.0002159977057953899</v>
@@ -3983,7 +3983,7 @@
         <v>43571</v>
       </c>
       <c r="B258" t="n">
-        <v>0.000655248614016574</v>
+        <v>0.0006552915955913491</v>
       </c>
       <c r="C258" t="n">
         <v>-0.00159846425443444</v>
@@ -3997,7 +3997,7 @@
         <v>43572</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.002446896354140209</v>
+        <v>-0.002446975812775952</v>
       </c>
       <c r="C259" t="n">
         <v>-0.003215084771997612</v>
@@ -4011,7 +4011,7 @@
         <v>43573</v>
       </c>
       <c r="B260" t="n">
-        <v>0.001969171817595036</v>
+        <v>0.001969298438511887</v>
       </c>
       <c r="C260" t="n">
         <v>0.002257247895840253</v>
@@ -4025,7 +4025,7 @@
         <v>43577</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0008620095492390861</v>
+        <v>0.0008618159868105809</v>
       </c>
       <c r="C261" t="n">
         <v>0.0001118773685737651</v>
@@ -4039,7 +4039,7 @@
         <v>43578</v>
       </c>
       <c r="B262" t="n">
-        <v>0.008991683494423159</v>
+        <v>0.0089916545549527</v>
       </c>
       <c r="C262" t="n">
         <v>0.007868639190571347</v>
@@ -4053,7 +4053,7 @@
         <v>43579</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.002219318101774996</v>
+        <v>-0.002219097394763212</v>
       </c>
       <c r="C263" t="n">
         <v>-0.0003375028366698896</v>
@@ -4067,7 +4067,7 @@
         <v>43580</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.0006160325311961108</v>
+        <v>-0.000616080295084908</v>
       </c>
       <c r="C264" t="n">
         <v>0.000152383690670721</v>
@@ -4081,7 +4081,7 @@
         <v>43581</v>
       </c>
       <c r="B265" t="n">
-        <v>0.004656791391837778</v>
+        <v>0.004656758323871164</v>
       </c>
       <c r="C265" t="n">
         <v>0.00371605411798992</v>
@@ -4095,7 +4095,7 @@
         <v>43584</v>
       </c>
       <c r="B266" t="n">
-        <v>0.001567742917204182</v>
+        <v>0.001567693029799706</v>
       </c>
       <c r="C266" t="n">
         <v>1.130950888716953e-06</v>
@@ -4109,7 +4109,7 @@
         <v>43585</v>
       </c>
       <c r="B267" t="n">
-        <v>0.0005104090209160736</v>
+        <v>0.0005104642510581543</v>
       </c>
       <c r="C267" t="n">
         <v>0.004046161463412412</v>
@@ -4123,7 +4123,7 @@
         <v>43586</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.007516466694974812</v>
+        <v>-0.007516570187863724</v>
       </c>
       <c r="C268" t="n">
         <v>-0.004665957606078575</v>
@@ -4137,7 +4137,7 @@
         <v>43587</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.002158955786585066</v>
+        <v>-0.002158849105440501</v>
       </c>
       <c r="C269" t="n">
         <v>-0.002062636463311174</v>
@@ -4151,7 +4151,7 @@
         <v>43588</v>
       </c>
       <c r="B270" t="n">
-        <v>0.009787781355874294</v>
+        <v>0.009787668699708584</v>
       </c>
       <c r="C270" t="n">
         <v>0.007687575593058327</v>
@@ -4165,7 +4165,7 @@
         <v>43591</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.004115197293138657</v>
+        <v>-0.004115107264689776</v>
       </c>
       <c r="C271" t="n">
         <v>-0.002372518906163079</v>
@@ -4179,7 +4179,7 @@
         <v>43592</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.01669972859137024</v>
+        <v>-0.01669977995684591</v>
       </c>
       <c r="C272" t="n">
         <v>-0.01205773074173622</v>
@@ -4193,7 +4193,7 @@
         <v>43593</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.001389205385542386</v>
+        <v>-0.001389284185689595</v>
       </c>
       <c r="C273" t="n">
         <v>-0.001368225580463123</v>
@@ -4207,7 +4207,7 @@
         <v>43594</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.003025754254794448</v>
+        <v>-0.003025562429026542</v>
       </c>
       <c r="C274" t="n">
         <v>-0.001985020909716195</v>
@@ -4221,7 +4221,7 @@
         <v>43595</v>
       </c>
       <c r="B275" t="n">
-        <v>0.005023381089130256</v>
+        <v>0.005023209306680133</v>
       </c>
       <c r="C275" t="n">
         <v>0.003128540934339119</v>
@@ -4235,7 +4235,7 @@
         <v>43598</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.02513023463578738</v>
+        <v>-0.02513023978668739</v>
       </c>
       <c r="C276" t="n">
         <v>-0.01854466248584019</v>
@@ -4249,7 +4249,7 @@
         <v>43599</v>
       </c>
       <c r="B277" t="n">
-        <v>0.009043682537198937</v>
+        <v>0.009043676859860385</v>
       </c>
       <c r="C277" t="n">
         <v>0.00665110646308964</v>
@@ -4263,7 +4263,7 @@
         <v>43600</v>
       </c>
       <c r="B278" t="n">
-        <v>0.00585745835518865</v>
+        <v>0.005857429339902413</v>
       </c>
       <c r="C278" t="n">
         <v>0.005417833737987099</v>
@@ -4277,7 +4277,7 @@
         <v>43601</v>
       </c>
       <c r="B279" t="n">
-        <v>0.009261259633228082</v>
+        <v>0.009261329808677292</v>
       </c>
       <c r="C279" t="n">
         <v>0.006457647143578438</v>
@@ -4291,7 +4291,7 @@
         <v>43602</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.006465122663262672</v>
+        <v>-0.006465134619547463</v>
       </c>
       <c r="C280" t="n">
         <v>-0.004373303925527039</v>
@@ -4305,7 +4305,7 @@
         <v>43605</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.006612035247248011</v>
+        <v>-0.006611924750291071</v>
       </c>
       <c r="C281" t="n">
         <v>-0.005637631191915959</v>
@@ -4319,7 +4319,7 @@
         <v>43606</v>
       </c>
       <c r="B282" t="n">
-        <v>0.00901566278760089</v>
+        <v>0.009015537854573865</v>
       </c>
       <c r="C282" t="n">
         <v>0.006887067207041131</v>
@@ -4333,7 +4333,7 @@
         <v>43607</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.003071462960517066</v>
+        <v>-0.003071376926419625</v>
       </c>
       <c r="C283" t="n">
         <v>-0.001042530141642239</v>
@@ -4347,7 +4347,7 @@
         <v>43608</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.0122185700896755</v>
+        <v>-0.01221856022283159</v>
       </c>
       <c r="C284" t="n">
         <v>-0.007451942594283611</v>
@@ -4361,7 +4361,7 @@
         <v>43609</v>
       </c>
       <c r="B285" t="n">
-        <v>0.002268321037896137</v>
+        <v>0.002268316033926644</v>
       </c>
       <c r="C285" t="n">
         <v>0.001614921462245178</v>
@@ -4375,7 +4375,7 @@
         <v>43613</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.00930053360975207</v>
+        <v>-0.009300495121620202</v>
       </c>
       <c r="C286" t="n">
         <v>-0.005951413297333952</v>
@@ -4389,7 +4389,7 @@
         <v>43614</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.006710708276892425</v>
+        <v>-0.006710711783603525</v>
       </c>
       <c r="C287" t="n">
         <v>-0.004769775516753616</v>
@@ -4403,7 +4403,7 @@
         <v>43615</v>
       </c>
       <c r="B288" t="n">
-        <v>0.002731195585693071</v>
+        <v>0.002731037487386853</v>
       </c>
       <c r="C288" t="n">
         <v>0.003730979087346098</v>
@@ -4417,7 +4417,7 @@
         <v>43616</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.01347528861439389</v>
+        <v>-0.01347518573204835</v>
       </c>
       <c r="C289" t="n">
         <v>-0.008091013368468181</v>
@@ -4431,7 +4431,7 @@
         <v>43619</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.002542891406219946</v>
+        <v>-0.002542864463699004</v>
       </c>
       <c r="C290" t="n">
         <v>-0.001851354688589768</v>
@@ -4445,7 +4445,7 @@
         <v>43620</v>
       </c>
       <c r="B291" t="n">
-        <v>0.02170663690896299</v>
+        <v>0.02170664429641825</v>
       </c>
       <c r="C291" t="n">
         <v>0.01481407020813852</v>
@@ -4459,7 +4459,7 @@
         <v>43621</v>
       </c>
       <c r="B292" t="n">
-        <v>0.008662149097619372</v>
+        <v>0.008662179890140056</v>
       </c>
       <c r="C292" t="n">
         <v>0.005848609779174119</v>
@@ -4473,7 +4473,7 @@
         <v>43622</v>
       </c>
       <c r="B293" t="n">
-        <v>0.006502673146223703</v>
+        <v>0.006502579321828502</v>
       </c>
       <c r="C293" t="n">
         <v>0.005587854197780739</v>
@@ -4487,13 +4487,13 @@
         <v>43623</v>
       </c>
       <c r="B294" t="n">
-        <v>0.01000704433171323</v>
+        <v>0.01000692996126511</v>
       </c>
       <c r="C294" t="n">
         <v>0.009605035935384088</v>
       </c>
       <c r="D294" t="n">
-        <v>0.0139525300195984</v>
+        <v>0.01395253001959862</v>
       </c>
     </row>
     <row r="295">
@@ -4501,13 +4501,13 @@
         <v>43626</v>
       </c>
       <c r="B295" t="n">
-        <v>0.004588935693472591</v>
+        <v>0.00458913367868889</v>
       </c>
       <c r="C295" t="n">
         <v>0.002422207926197517</v>
       </c>
       <c r="D295" t="n">
-        <v>0.006359897306957629</v>
+        <v>0.006359897306957407</v>
       </c>
     </row>
     <row r="296">
@@ -4515,7 +4515,7 @@
         <v>43627</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.0002422650237845324</v>
+        <v>-0.0002422415854332926</v>
       </c>
       <c r="C296" t="n">
         <v>-0.0001883486521689903</v>
@@ -4529,7 +4529,7 @@
         <v>43628</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.001765244924960453</v>
+        <v>-0.001765284216172126</v>
       </c>
       <c r="C297" t="n">
         <v>-0.001009809882533186</v>
@@ -4543,7 +4543,7 @@
         <v>43629</v>
       </c>
       <c r="B298" t="n">
-        <v>0.004126259105325692</v>
+        <v>0.004126172104456231</v>
       </c>
       <c r="C298" t="n">
         <v>0.003055712305657154</v>
@@ -4557,7 +4557,7 @@
         <v>43630</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.001104968649346814</v>
+        <v>-0.001104856963742027</v>
       </c>
       <c r="C299" t="n">
         <v>-0.001180279407739904</v>
@@ -4571,7 +4571,7 @@
         <v>43633</v>
       </c>
       <c r="B300" t="n">
-        <v>0.0003802300623982431</v>
+        <v>0.0003801910102992188</v>
       </c>
       <c r="C300" t="n">
         <v>0.0008754128997268129</v>
@@ -4585,7 +4585,7 @@
         <v>43634</v>
       </c>
       <c r="B301" t="n">
-        <v>0.01047101921562324</v>
+        <v>0.01047095178846152</v>
       </c>
       <c r="C301" t="n">
         <v>0.008954543892945477</v>
@@ -4599,7 +4599,7 @@
         <v>43635</v>
       </c>
       <c r="B302" t="n">
-        <v>0.002257194513974682</v>
+        <v>0.002257291671458054</v>
       </c>
       <c r="C302" t="n">
         <v>0.002523677272520342</v>
@@ -4613,7 +4613,7 @@
         <v>43636</v>
       </c>
       <c r="B303" t="n">
-        <v>0.009554315895361758</v>
+        <v>0.009554219324822219</v>
       </c>
       <c r="C303" t="n">
         <v>0.007520089957709475</v>
@@ -4627,7 +4627,7 @@
         <v>43637</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.006286708049932231</v>
+        <v>-0.001453537697625466</v>
       </c>
       <c r="C304" t="n">
         <v>-0.005783078221732074</v>
@@ -4641,7 +4641,7 @@
         <v>43640</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.00122443997130102</v>
+        <v>-0.001224531886001439</v>
       </c>
       <c r="C305" t="n">
         <v>4.521188767325768e-05</v>
@@ -4655,7 +4655,7 @@
         <v>43641</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.009807944214485227</v>
+        <v>-0.009807947612362349</v>
       </c>
       <c r="C306" t="n">
         <v>-0.007102554350331025</v>
@@ -4669,13 +4669,13 @@
         <v>43642</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.000997415515137877</v>
+        <v>-0.0009973075052528324</v>
       </c>
       <c r="C307" t="n">
         <v>-0.001008715286090811</v>
       </c>
       <c r="D307" t="n">
-        <v>0.003140821929459747</v>
+        <v>0.003140821929459525</v>
       </c>
     </row>
     <row r="308">
@@ -4683,13 +4683,13 @@
         <v>43643</v>
       </c>
       <c r="B308" t="n">
-        <v>0.00354597299193822</v>
+        <v>0.003545926390683076</v>
       </c>
       <c r="C308" t="n">
         <v>0.003734554440123272</v>
       </c>
       <c r="D308" t="n">
-        <v>0.004441541451847497</v>
+        <v>0.004441541451847719</v>
       </c>
     </row>
     <row r="309">
@@ -4697,7 +4697,7 @@
         <v>43644</v>
       </c>
       <c r="B309" t="n">
-        <v>0.005145797598627788</v>
+        <v>0.005145689901414053</v>
       </c>
       <c r="C309" t="n">
         <v>0.003191017351481751</v>
@@ -4711,7 +4711,7 @@
         <v>43647</v>
       </c>
       <c r="B310" t="n">
-        <v>0.009078510792182167</v>
+        <v>0.009078610967635152</v>
       </c>
       <c r="C310" t="n">
         <v>0.006289906950844859</v>
@@ -4725,7 +4725,7 @@
         <v>43648</v>
       </c>
       <c r="B311" t="n">
-        <v>0.002604305635306172</v>
+        <v>0.002604286202178601</v>
       </c>
       <c r="C311" t="n">
         <v>0.003082776792394215</v>
@@ -4739,7 +4739,7 @@
         <v>43649</v>
       </c>
       <c r="B312" t="n">
-        <v>0.007995125917570931</v>
+        <v>0.007995120183541246</v>
       </c>
       <c r="C312" t="n">
         <v>0.006365177539134681</v>
@@ -4753,7 +4753,7 @@
         <v>43651</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.001137872663255262</v>
+        <v>-0.001137877809445105</v>
       </c>
       <c r="C313" t="n">
         <v>-0.003041446451407248</v>
@@ -4767,13 +4767,13 @@
         <v>43654</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.005494820672157704</v>
+        <v>-0.005494796593345004</v>
       </c>
       <c r="C314" t="n">
         <v>-0.0033665340648803</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.003414577247839001</v>
+        <v>-0.003414577247839223</v>
       </c>
     </row>
     <row r="315">
@@ -4781,13 +4781,13 @@
         <v>43655</v>
       </c>
       <c r="B315" t="n">
-        <v>0.00124653024748211</v>
+        <v>0.001246560475695951</v>
       </c>
       <c r="C315" t="n">
         <v>0.0007255545680084907</v>
       </c>
       <c r="D315" t="n">
-        <v>0.0004405052642173501</v>
+        <v>0.0004405052642175722</v>
       </c>
     </row>
     <row r="316">
@@ -4795,7 +4795,7 @@
         <v>43656</v>
       </c>
       <c r="B316" t="n">
-        <v>0.00477803054776788</v>
+        <v>0.004777996352220414</v>
       </c>
       <c r="C316" t="n">
         <v>0.002267043695201254</v>
@@ -4809,7 +4809,7 @@
         <v>43657</v>
       </c>
       <c r="B317" t="n">
-        <v>0.002344235763606849</v>
+        <v>0.002344333493687551</v>
       </c>
       <c r="C317" t="n">
         <v>-0.0003939090659631495</v>
@@ -4823,13 +4823,13 @@
         <v>43658</v>
       </c>
       <c r="B318" t="n">
-        <v>0.004476951484483253</v>
+        <v>0.004476886302645584</v>
       </c>
       <c r="C318" t="n">
         <v>0.001928936821155469</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.005079803086577739</v>
+        <v>-0.005079803086577961</v>
       </c>
     </row>
     <row r="319">
@@ -4837,13 +4837,13 @@
         <v>43661</v>
       </c>
       <c r="B319" t="n">
-        <v>0.0003326329803620675</v>
+        <v>0.0003326471256927819</v>
       </c>
       <c r="C319" t="n">
         <v>0.001100678787655962</v>
       </c>
       <c r="D319" t="n">
-        <v>0.0009818570835629092</v>
+        <v>0.0009818570835631313</v>
       </c>
     </row>
     <row r="320">
@@ -4851,7 +4851,7 @@
         <v>43662</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.003225274216801746</v>
+        <v>-0.003225283289952482</v>
       </c>
       <c r="C320" t="n">
         <v>-0.002618886733569359</v>
@@ -4865,7 +4865,7 @@
         <v>43663</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.006805018857925088</v>
+        <v>-0.00680494747446094</v>
       </c>
       <c r="C321" t="n">
         <v>-0.002563415756759446</v>
@@ -4879,7 +4879,7 @@
         <v>43664</v>
       </c>
       <c r="B322" t="n">
-        <v>0.003660900025665352</v>
+        <v>0.003660799824701455</v>
       </c>
       <c r="C322" t="n">
         <v>0.002591001885379862</v>
@@ -4893,7 +4893,7 @@
         <v>43665</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.005554908205739323</v>
+        <v>-0.005554761029551541</v>
       </c>
       <c r="C323" t="n">
         <v>-0.004336182771941255</v>
@@ -4907,7 +4907,7 @@
         <v>43668</v>
       </c>
       <c r="B324" t="n">
-        <v>0.00245644054166157</v>
+        <v>0.002456351860279865</v>
       </c>
       <c r="C324" t="n">
         <v>0.001497873380422732</v>
@@ -4921,7 +4921,7 @@
         <v>43669</v>
       </c>
       <c r="B325" t="n">
-        <v>0.007150066889738318</v>
+        <v>0.007150069755758716</v>
       </c>
       <c r="C325" t="n">
         <v>0.003925263499055864</v>
@@ -4935,7 +4935,7 @@
         <v>43670</v>
       </c>
       <c r="B326" t="n">
-        <v>0.004699542271926544</v>
+        <v>0.004699466727032755</v>
       </c>
       <c r="C326" t="n">
         <v>0.003368450748796326</v>
@@ -4949,7 +4949,7 @@
         <v>43671</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.004777078124148957</v>
+        <v>-0.004777027970323816</v>
       </c>
       <c r="C327" t="n">
         <v>-0.003801003885391951</v>
@@ -4963,7 +4963,7 @@
         <v>43672</v>
       </c>
       <c r="B328" t="n">
-        <v>0.006700032552083333</v>
+        <v>0.006699936356103682</v>
       </c>
       <c r="C328" t="n">
         <v>0.00449684800112915</v>
@@ -4977,7 +4977,7 @@
         <v>43675</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.001821192320657573</v>
+        <v>-0.001821165842967888</v>
       </c>
       <c r="C329" t="n">
         <v>-0.0007017014927563903</v>
@@ -4991,7 +4991,7 @@
         <v>43676</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.002454688036058241</v>
+        <v>-0.002454747624809162</v>
       </c>
       <c r="C330" t="n">
         <v>-0.00143212515098623</v>
@@ -5005,7 +5005,7 @@
         <v>43677</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.01094043805389348</v>
+        <v>-0.01094033287196573</v>
       </c>
       <c r="C331" t="n">
         <v>-0.003346995290066102</v>
@@ -5019,7 +5019,7 @@
         <v>43678</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.008707919179872002</v>
+        <v>-0.008707818251307424</v>
       </c>
       <c r="C332" t="n">
         <v>-0.002600761972331611</v>
@@ -5033,7 +5033,7 @@
         <v>43679</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.007529511763251325</v>
+        <v>-0.007529695491948094</v>
       </c>
       <c r="C333" t="n">
         <v>-0.003233390193598473</v>
@@ -5047,7 +5047,7 @@
         <v>43682</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.03007309117562031</v>
+        <v>-0.03007305891581088</v>
       </c>
       <c r="C334" t="n">
         <v>-0.01635277889737319</v>
@@ -5061,7 +5061,7 @@
         <v>43683</v>
       </c>
       <c r="B335" t="n">
-        <v>0.01402290312889574</v>
+        <v>0.0140229554280059</v>
       </c>
       <c r="C335" t="n">
         <v>0.009875740634856411</v>
@@ -5075,7 +5075,7 @@
         <v>43684</v>
       </c>
       <c r="B336" t="n">
-        <v>0.0005907346592963566</v>
+        <v>0.0005908465187751405</v>
       </c>
       <c r="C336" t="n">
         <v>0.0006391057820458457</v>
@@ -5089,7 +5089,7 @@
         <v>43685</v>
       </c>
       <c r="B337" t="n">
-        <v>0.01962007803776117</v>
+        <v>0.01961991322722247</v>
       </c>
       <c r="C337" t="n">
         <v>0.01223115324880908</v>
@@ -5103,7 +5103,7 @@
         <v>43686</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.006811525213743615</v>
+        <v>-0.006811488945284088</v>
       </c>
       <c r="C338" t="n">
         <v>-0.004022642903061646</v>
@@ -5117,7 +5117,7 @@
         <v>43689</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.01217333465608964</v>
+        <v>-0.01217319651011124</v>
       </c>
       <c r="C339" t="n">
         <v>-0.004649249636783814</v>
@@ -5131,7 +5131,7 @@
         <v>43690</v>
       </c>
       <c r="B340" t="n">
-        <v>0.01555170741432948</v>
+        <v>0.01555161186731285</v>
       </c>
       <c r="C340" t="n">
         <v>0.009109824499535346</v>
@@ -5145,7 +5145,7 @@
         <v>43691</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.02956757565344965</v>
+        <v>-0.02956751910751494</v>
       </c>
       <c r="C341" t="n">
         <v>-0.01546486513537659</v>
@@ -5159,7 +5159,7 @@
         <v>43692</v>
       </c>
       <c r="B342" t="n">
-        <v>0.002641775329778503</v>
+        <v>0.002641664957196703</v>
       </c>
       <c r="C342" t="n">
         <v>0.003334047153402686</v>
@@ -5173,7 +5173,7 @@
         <v>43693</v>
       </c>
       <c r="B343" t="n">
-        <v>0.01475500543505588</v>
+        <v>0.01475506943410946</v>
       </c>
       <c r="C343" t="n">
         <v>0.007913242076852844</v>
@@ -5187,7 +5187,7 @@
         <v>43696</v>
       </c>
       <c r="B344" t="n">
-        <v>0.01204770779026009</v>
+        <v>0.01204768642393847</v>
       </c>
       <c r="C344" t="n">
         <v>0.005309001313757333</v>
@@ -5201,7 +5201,7 @@
         <v>43697</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.007662540065219282</v>
+        <v>-0.007662493784332578</v>
       </c>
       <c r="C345" t="n">
         <v>-0.003470902549899235</v>
@@ -5215,7 +5215,7 @@
         <v>43698</v>
       </c>
       <c r="B346" t="n">
-        <v>0.008135461060131591</v>
+        <v>0.008135411427946633</v>
       </c>
       <c r="C346" t="n">
         <v>0.004094258500766612</v>
@@ -5229,7 +5229,7 @@
         <v>43699</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.000307836730076859</v>
+        <v>-0.0003079151325014267</v>
       </c>
       <c r="C347" t="n">
         <v>-0.001475283796592786</v>
@@ -5243,7 +5243,7 @@
         <v>43700</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.02568743885732562</v>
+        <v>-0.02568726521958407</v>
       </c>
       <c r="C348" t="n">
         <v>-0.01374153478249718</v>
@@ -5257,7 +5257,7 @@
         <v>43703</v>
       </c>
       <c r="B349" t="n">
-        <v>0.0110584301526736</v>
+        <v>0.01105833891724921</v>
       </c>
       <c r="C349" t="n">
         <v>0.006279656943579015</v>
@@ -5271,7 +5271,7 @@
         <v>43704</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.003923628065321181</v>
+        <v>-0.003923703931550475</v>
       </c>
       <c r="C350" t="n">
         <v>-0.0003944041623115124</v>
@@ -5285,7 +5285,7 @@
         <v>43705</v>
       </c>
       <c r="B351" t="n">
-        <v>0.007041585267308329</v>
+        <v>0.007041639169729577</v>
       </c>
       <c r="C351" t="n">
         <v>0.00465393496919897</v>
@@ -5299,7 +5299,7 @@
         <v>43706</v>
       </c>
       <c r="B352" t="n">
-        <v>0.01277292996200858</v>
+        <v>0.01277298157810383</v>
       </c>
       <c r="C352" t="n">
         <v>0.006993449991593348</v>
@@ -5313,7 +5313,7 @@
         <v>43707</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.0004442353243538483</v>
+        <v>-0.0004442731846025297</v>
       </c>
       <c r="C353" t="n">
         <v>-0.0003108406586270762</v>
@@ -5327,7 +5327,7 @@
         <v>43711</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.005847228248517532</v>
+        <v>-0.005847300915784094</v>
       </c>
       <c r="C354" t="n">
         <v>-0.003951844245019265</v>
@@ -5341,7 +5341,7 @@
         <v>43712</v>
       </c>
       <c r="B355" t="n">
-        <v>0.01135041074977894</v>
+        <v>0.01135045331581537</v>
       </c>
       <c r="C355" t="n">
         <v>0.006835765567520635</v>
@@ -5355,7 +5355,7 @@
         <v>43713</v>
       </c>
       <c r="B356" t="n">
-        <v>0.01285538929890007</v>
+        <v>0.01285541236477702</v>
       </c>
       <c r="C356" t="n">
         <v>0.003881231061360069</v>
@@ -5369,7 +5369,7 @@
         <v>43714</v>
       </c>
       <c r="B357" t="n">
-        <v>0.0007722129578072103</v>
+        <v>0.0007722644499363815</v>
       </c>
       <c r="C357" t="n">
         <v>0.001892069785734085</v>
@@ -5383,7 +5383,7 @@
         <v>43717</v>
       </c>
       <c r="B358" t="n">
-        <v>0.0005033531964668619</v>
+        <v>0.0005032711580928331</v>
       </c>
       <c r="C358" t="n">
         <v>-0.00394814964444512</v>
@@ -5397,7 +5397,7 @@
         <v>43718</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.0002347663358583166</v>
+        <v>-0.0002347556526635111</v>
       </c>
       <c r="C359" t="n">
         <v>-0.003535335120217531</v>
@@ -5411,7 +5411,7 @@
         <v>43719</v>
       </c>
       <c r="B360" t="n">
-        <v>0.007110975354596789</v>
+        <v>0.007111039186462621</v>
       </c>
       <c r="C360" t="n">
         <v>0.004251361631546269</v>
@@ -5425,7 +5425,7 @@
         <v>43720</v>
       </c>
       <c r="B361" t="n">
-        <v>0.003463808642537469</v>
+        <v>0.003463703320971085</v>
       </c>
       <c r="C361" t="n">
         <v>0.0005637095683395099</v>
@@ -5439,7 +5439,7 @@
         <v>43721</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.0006638527709471935</v>
+        <v>-0.000663777726925459</v>
       </c>
       <c r="C362" t="n">
         <v>-0.004606471337235796</v>
@@ -5453,7 +5453,7 @@
         <v>43724</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.003088753153849686</v>
+        <v>-0.003088797500677141</v>
       </c>
       <c r="C363" t="n">
         <v>0.0004223171946284854</v>
@@ -5467,7 +5467,7 @@
         <v>43725</v>
       </c>
       <c r="B364" t="n">
-        <v>0.002532015446270264</v>
+        <v>0.002531954833808317</v>
       </c>
       <c r="C364" t="n">
         <v>0.002763685069246513</v>
@@ -5481,7 +5481,7 @@
         <v>43726</v>
       </c>
       <c r="B365" t="n">
-        <v>0.0005981412593033632</v>
+        <v>0.0005981862224152159</v>
       </c>
       <c r="C365" t="n">
         <v>0.001062225964895358</v>
@@ -5495,7 +5495,7 @@
         <v>43727</v>
       </c>
       <c r="B366" t="n">
-        <v>-6.648798021982588e-05</v>
+        <v>-6.647134635282681e-05</v>
       </c>
       <c r="C366" t="n">
         <v>0.00103331219516889</v>
@@ -5509,7 +5509,7 @@
         <v>43728</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.009299813730052406</v>
+        <v>-0.004724741742169558</v>
       </c>
       <c r="C367" t="n">
         <v>-0.002440032324445673</v>
@@ -5523,7 +5523,7 @@
         <v>43731</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.0002347033810689726</v>
+        <v>-0.0002347564874072361</v>
       </c>
       <c r="C368" t="n">
         <v>-0.0003817465106512596</v>
@@ -5537,7 +5537,7 @@
         <v>43732</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.007846807300026761</v>
+        <v>-0.007846759864711108</v>
       </c>
       <c r="C369" t="n">
         <v>-0.002524263059569876</v>
@@ -5551,7 +5551,7 @@
         <v>43733</v>
       </c>
       <c r="B370" t="n">
-        <v>0.005914759958362334</v>
+        <v>0.00591472764145824</v>
       </c>
       <c r="C370" t="n">
         <v>-0.0002489113326861192</v>
@@ -5565,7 +5565,7 @@
         <v>43734</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.002083176961760845</v>
+        <v>-0.002083139221055842</v>
       </c>
       <c r="C371" t="n">
         <v>-0.0002704965004417526</v>
@@ -5579,7 +5579,7 @@
         <v>43735</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.005387225937763047</v>
+        <v>-0.005387199767152791</v>
       </c>
       <c r="C372" t="n">
         <v>-0.002690227233083098</v>
@@ -5593,7 +5593,7 @@
         <v>43738</v>
       </c>
       <c r="B373" t="n">
-        <v>0.00463776284865998</v>
+        <v>0.004637695752432467</v>
       </c>
       <c r="C373" t="n">
         <v>0.003681882891505728</v>
@@ -5607,7 +5607,7 @@
         <v>43739</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.01189472962218647</v>
+        <v>-0.0118947479088323</v>
       </c>
       <c r="C374" t="n">
         <v>-0.00731420296300811</v>
@@ -5621,7 +5621,7 @@
         <v>43740</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.01766468711051685</v>
+        <v>-0.01766464187110973</v>
       </c>
       <c r="C375" t="n">
         <v>-0.009818033221856481</v>
@@ -5635,7 +5635,7 @@
         <v>43741</v>
       </c>
       <c r="B376" t="n">
-        <v>0.008192792783248491</v>
+        <v>0.008192836812501384</v>
       </c>
       <c r="C376" t="n">
         <v>0.007148151278286274</v>
@@ -5649,7 +5649,7 @@
         <v>43742</v>
       </c>
       <c r="B377" t="n">
-        <v>0.01353210004158049</v>
+        <v>0.01353203071357031</v>
       </c>
       <c r="C377" t="n">
         <v>0.009887723838881035</v>
@@ -5663,7 +5663,7 @@
         <v>43745</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.004314657737100116</v>
+        <v>-0.00431456072931855</v>
       </c>
       <c r="C378" t="n">
         <v>-0.004365767845301849</v>
@@ -5677,7 +5677,7 @@
         <v>43746</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.01552473045390578</v>
+        <v>-0.01552472855167902</v>
       </c>
       <c r="C379" t="n">
         <v>-0.009312964101077514</v>
@@ -5691,7 +5691,7 @@
         <v>43747</v>
       </c>
       <c r="B380" t="n">
-        <v>0.00949637904539306</v>
+        <v>0.009496348706379809</v>
       </c>
       <c r="C380" t="n">
         <v>0.004560302736329236</v>
@@ -5705,7 +5705,7 @@
         <v>43748</v>
       </c>
       <c r="B381" t="n">
-        <v>0.006763488498674869</v>
+        <v>0.006763397256963248</v>
       </c>
       <c r="C381" t="n">
         <v>0.001191297534947511</v>
@@ -5719,7 +5719,7 @@
         <v>43749</v>
       </c>
       <c r="B382" t="n">
-        <v>0.01036696441877562</v>
+        <v>0.01036703073540335</v>
       </c>
       <c r="C382" t="n">
         <v>0.003672276078740877</v>
@@ -5733,7 +5733,7 @@
         <v>43752</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.00111376594311193</v>
+        <v>-0.001113836238778631</v>
       </c>
       <c r="C383" t="n">
         <v>0.0007394077229174734</v>
@@ -5747,7 +5747,7 @@
         <v>43753</v>
       </c>
       <c r="B384" t="n">
-        <v>0.009900295843649364</v>
+        <v>0.009900337067500185</v>
       </c>
       <c r="C384" t="n">
         <v>0.004456575412919328</v>
@@ -5761,7 +5761,7 @@
         <v>43754</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.001606032449431778</v>
+        <v>-0.001605994052472839</v>
       </c>
       <c r="C385" t="n">
         <v>-0.0005721047406676005</v>
@@ -5775,7 +5775,7 @@
         <v>43755</v>
       </c>
       <c r="B386" t="n">
-        <v>0.002949078085831917</v>
+        <v>0.002949058600105702</v>
       </c>
       <c r="C386" t="n">
         <v>0.001829493450944408</v>
@@ -5789,7 +5789,7 @@
         <v>43756</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.004377163739431193</v>
+        <v>-0.00437714146573365</v>
       </c>
       <c r="C387" t="n">
         <v>-0.002577278536934458</v>
@@ -5803,7 +5803,7 @@
         <v>43759</v>
       </c>
       <c r="B388" t="n">
-        <v>0.006779169061974434</v>
+        <v>0.006779042760979732</v>
       </c>
       <c r="C388" t="n">
         <v>0.002088859802293674</v>
@@ -5817,7 +5817,7 @@
         <v>43760</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.003266710559190208</v>
+        <v>-0.003266617683238062</v>
       </c>
       <c r="C389" t="n">
         <v>-0.00045511457503844</v>
@@ -5831,7 +5831,7 @@
         <v>43761</v>
       </c>
       <c r="B390" t="n">
-        <v>0.002909585260605269</v>
+        <v>0.002909572689993677</v>
       </c>
       <c r="C390" t="n">
         <v>0.002300745091708745</v>
@@ -5845,7 +5845,7 @@
         <v>43762</v>
       </c>
       <c r="B391" t="n">
-        <v>0.001633954336390247</v>
+        <v>0.001634011069947142</v>
       </c>
       <c r="C391" t="n">
         <v>0.0002876341666793181</v>
@@ -5859,7 +5859,7 @@
         <v>43763</v>
       </c>
       <c r="B392" t="n">
-        <v>0.004094986204758047</v>
+        <v>0.004094919444647309</v>
       </c>
       <c r="C392" t="n">
         <v>0.001304148807500294</v>
@@ -5873,7 +5873,7 @@
         <v>43766</v>
       </c>
       <c r="B393" t="n">
-        <v>0.005636543949106071</v>
+        <v>0.005636547618436125</v>
       </c>
       <c r="C393" t="n">
         <v>0.002160291404742498</v>
@@ -5887,7 +5887,7 @@
         <v>43767</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.0002967238427719823</v>
+        <v>-0.0002966590005921943</v>
       </c>
       <c r="C394" t="n">
         <v>0.001008245752591508</v>
@@ -5901,7 +5901,7 @@
         <v>43768</v>
       </c>
       <c r="B395" t="n">
-        <v>0.003067257740736957</v>
+        <v>0.003067203495402107</v>
       </c>
       <c r="C395" t="n">
         <v>0.004797731982819187</v>
@@ -5915,7 +5915,7 @@
         <v>43769</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.002663339373834795</v>
+        <v>-0.002663269808292047</v>
       </c>
       <c r="C396" t="n">
         <v>0.001321263558250463</v>
@@ -5929,7 +5929,7 @@
         <v>43770</v>
       </c>
       <c r="B397" t="n">
-        <v>0.009263931034073386</v>
+        <v>0.009263853901323249</v>
       </c>
       <c r="C397" t="n">
         <v>0.003867218890260649</v>
@@ -5943,7 +5943,7 @@
         <v>43773</v>
       </c>
       <c r="B398" t="n">
-        <v>0.004017705657205494</v>
+        <v>0.004017740076365197</v>
       </c>
       <c r="C398" t="n">
         <v>-0.0004077384244171034</v>
@@ -5957,7 +5957,7 @@
         <v>43774</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.001106146804475819</v>
+        <v>-0.001106207959637018</v>
       </c>
       <c r="C399" t="n">
         <v>-0.003408088386730013</v>
@@ -5971,7 +5971,7 @@
         <v>43775</v>
       </c>
       <c r="B400" t="n">
-        <v>0.00022801460605507</v>
+        <v>0.0002279652972030707</v>
       </c>
       <c r="C400" t="n">
         <v>0.001657430096515533</v>
@@ -5985,7 +5985,7 @@
         <v>43776</v>
       </c>
       <c r="B401" t="n">
-        <v>0.003516725987630195</v>
+        <v>0.003516766411122575</v>
       </c>
       <c r="C401" t="n">
         <v>-0.001426223711015417</v>
@@ -5999,7 +5999,7 @@
         <v>43777</v>
       </c>
       <c r="B402" t="n">
-        <v>0.002466122992041743</v>
+        <v>0.002466189427678166</v>
       </c>
       <c r="C402" t="n">
         <v>0.001157359362245813</v>
@@ -6013,7 +6013,7 @@
         <v>43780</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.001909744070784501</v>
+        <v>-0.001909728856011038</v>
       </c>
       <c r="C403" t="n">
         <v>-0.001156797260125519</v>
@@ -6027,7 +6027,7 @@
         <v>43781</v>
       </c>
       <c r="B404" t="n">
-        <v>0.002107974326636357</v>
+        <v>0.002107916523772541</v>
       </c>
       <c r="C404" t="n">
         <v>0.002359338218575813</v>
@@ -6041,7 +6041,7 @@
         <v>43782</v>
       </c>
       <c r="B405" t="n">
-        <v>0.0003236443479470065</v>
+        <v>0.0003236744064089137</v>
       </c>
       <c r="C405" t="n">
         <v>0.001513583328479395</v>
@@ -6055,7 +6055,7 @@
         <v>43783</v>
       </c>
       <c r="B406" t="n">
-        <v>0.001455780267123091</v>
+        <v>0.001455762823027135</v>
       </c>
       <c r="C406" t="n">
         <v>0.002818142330195395</v>
@@ -6069,7 +6069,7 @@
         <v>43784</v>
       </c>
       <c r="B407" t="n">
-        <v>0.007236378098167723</v>
+        <v>0.007236403804484474</v>
       </c>
       <c r="C407" t="n">
         <v>0.005398008058827841</v>
@@ -6083,7 +6083,7 @@
         <v>43787</v>
       </c>
       <c r="B408" t="n">
-        <v>0.0007376133373333066</v>
+        <v>0.0007375509948143865</v>
       </c>
       <c r="C408" t="n">
         <v>0.0007153518604405829</v>
@@ -6097,7 +6097,7 @@
         <v>43788</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.000288431321900603</v>
+        <v>-0.0002883683011343579</v>
       </c>
       <c r="C409" t="n">
         <v>0.001677272980952216</v>
@@ -6111,7 +6111,7 @@
         <v>43789</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.003718794887784574</v>
+        <v>-0.003718779274125356</v>
       </c>
       <c r="C410" t="n">
         <v>-0.0002089036023156243</v>
@@ -6125,7 +6125,7 @@
         <v>43790</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.001608906965524278</v>
+        <v>-0.00160895511435964</v>
       </c>
       <c r="C411" t="n">
         <v>-0.001912730625440062</v>
@@ -6139,7 +6139,7 @@
         <v>43791</v>
       </c>
       <c r="B412" t="n">
-        <v>0.002223877480383207</v>
+        <v>0.00222399219330907</v>
       </c>
       <c r="C412" t="n">
         <v>0.001813915235711727</v>
@@ -6153,7 +6153,7 @@
         <v>43794</v>
       </c>
       <c r="B413" t="n">
-        <v>0.007750204940617027</v>
+        <v>0.007750109727293425</v>
       </c>
       <c r="C413" t="n">
         <v>0.005811978139426577</v>
@@ -6167,7 +6167,7 @@
         <v>43795</v>
       </c>
       <c r="B414" t="n">
-        <v>0.002265665080068107</v>
+        <v>0.00226566529830304</v>
       </c>
       <c r="C414" t="n">
         <v>0.002349635548047457</v>
@@ -6181,7 +6181,7 @@
         <v>43796</v>
       </c>
       <c r="B415" t="n">
-        <v>0.004457540989293098</v>
+        <v>0.004457458669488293</v>
       </c>
       <c r="C415" t="n">
         <v>0.002157089547353941</v>
@@ -6195,13 +6195,13 @@
         <v>43798</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.003708676895491422</v>
+        <v>-0.003708655372300895</v>
       </c>
       <c r="C416" t="n">
         <v>-0.00262916991044948</v>
       </c>
       <c r="D416" t="n">
-        <v>-0.00166686409797201</v>
+        <v>-0.001666864097972232</v>
       </c>
     </row>
     <row r="417">
@@ -6209,7 +6209,7 @@
         <v>43801</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.008494743822644429</v>
+        <v>-0.008494568166661984</v>
       </c>
       <c r="C417" t="n">
         <v>-0.008132397075999775</v>
@@ -6223,13 +6223,13 @@
         <v>43802</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.006706542026788565</v>
+        <v>-0.006706671864419384</v>
       </c>
       <c r="C418" t="n">
         <v>1.878344338268612e-05</v>
       </c>
       <c r="D418" t="n">
-        <v>0.001761374644138725</v>
+        <v>0.001761374644138947</v>
       </c>
     </row>
     <row r="419">
@@ -6237,7 +6237,7 @@
         <v>43803</v>
       </c>
       <c r="B419" t="n">
-        <v>0.006170259206686874</v>
+        <v>0.006170216088184094</v>
       </c>
       <c r="C419" t="n">
         <v>0.00234873858366158</v>
@@ -6251,7 +6251,7 @@
         <v>43804</v>
       </c>
       <c r="B420" t="n">
-        <v>0.001797975900460135</v>
+        <v>0.001797981990535377</v>
       </c>
       <c r="C420" t="n">
         <v>0.0001222860386258517</v>
@@ -6265,7 +6265,7 @@
         <v>43805</v>
       </c>
       <c r="B421" t="n">
-        <v>0.009134049752789222</v>
+        <v>0.009134145378734129</v>
       </c>
       <c r="C421" t="n">
         <v>0.004595941304628814</v>
@@ -6279,7 +6279,7 @@
         <v>43808</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.003144123764496989</v>
+        <v>-0.003144126804192694</v>
       </c>
       <c r="C422" t="n">
         <v>-0.001963820724674048</v>
@@ -6293,7 +6293,7 @@
         <v>43809</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.001115095253188556</v>
+        <v>-0.001115049936390034</v>
       </c>
       <c r="C423" t="n">
         <v>-0.0006058115754430382</v>
@@ -6307,7 +6307,7 @@
         <v>43810</v>
       </c>
       <c r="B424" t="n">
-        <v>0.002838690561996295</v>
+        <v>0.002838665379607383</v>
       </c>
       <c r="C424" t="n">
         <v>0.003427852938362452</v>
@@ -6321,7 +6321,7 @@
         <v>43811</v>
       </c>
       <c r="B425" t="n">
-        <v>0.00861901704517605</v>
+        <v>0.008619010187016706</v>
       </c>
       <c r="C425" t="n">
         <v>0.002324254026142558</v>
@@ -6335,13 +6335,13 @@
         <v>43812</v>
       </c>
       <c r="B426" t="n">
-        <v>0.0005991310771002595</v>
+        <v>0.00059909830429387</v>
       </c>
       <c r="C426" t="n">
         <v>0.002772661071769988</v>
       </c>
       <c r="D426" t="n">
-        <v>0.002024870157671943</v>
+        <v>0.002024870157671721</v>
       </c>
     </row>
     <row r="427">
@@ -6349,13 +6349,13 @@
         <v>43815</v>
       </c>
       <c r="B427" t="n">
-        <v>0.006870013316096589</v>
+        <v>0.006869980356419959</v>
       </c>
       <c r="C427" t="n">
         <v>0.00292106066693032</v>
       </c>
       <c r="D427" t="n">
-        <v>0.003744732450070121</v>
+        <v>0.003744732450070343</v>
       </c>
     </row>
     <row r="428">
@@ -6363,7 +6363,7 @@
         <v>43816</v>
       </c>
       <c r="B428" t="n">
-        <v>0.0002191152557707355</v>
+        <v>0.0002191648403738099</v>
       </c>
       <c r="C428" t="n">
         <v>-0.0001113434946913294</v>
@@ -6377,7 +6377,7 @@
         <v>43817</v>
       </c>
       <c r="B429" t="n">
-        <v>6.254971747581808e-05</v>
+        <v>6.253555194605305e-05</v>
       </c>
       <c r="C429" t="n">
         <v>-0.001203385056023687</v>
@@ -6391,7 +6391,7 @@
         <v>43818</v>
       </c>
       <c r="B430" t="n">
-        <v>0.004098994253902548</v>
+        <v>0.004098973337089756</v>
       </c>
       <c r="C430" t="n">
         <v>0.002778491110488002</v>
@@ -6405,7 +6405,7 @@
         <v>43819</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.0005297068039555119</v>
+        <v>0.004384160057807922</v>
       </c>
       <c r="C431" t="n">
         <v>0.0001455809459660617</v>
@@ -6419,7 +6419,7 @@
         <v>43822</v>
       </c>
       <c r="B432" t="n">
-        <v>0.001527734286131044</v>
+        <v>0.001527810956345443</v>
       </c>
       <c r="C432" t="n">
         <v>0.0003676142476611854</v>
@@ -6433,7 +6433,7 @@
         <v>43823</v>
       </c>
       <c r="B433" t="n">
-        <v>3.116171342681277e-05</v>
+        <v>3.119493494080353e-05</v>
       </c>
       <c r="C433" t="n">
         <v>0.0004913301336544329</v>
@@ -6447,7 +6447,7 @@
         <v>43825</v>
       </c>
       <c r="B434" t="n">
-        <v>0.005323261826713021</v>
+        <v>0.005323225593868246</v>
       </c>
       <c r="C434" t="n">
         <v>0.003481109481811462</v>
@@ -6461,7 +6461,7 @@
         <v>43826</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.0002477769531145903</v>
+        <v>-0.0002478484160614939</v>
       </c>
       <c r="C435" t="n">
         <v>0.0003299070810012239</v>
@@ -6475,13 +6475,13 @@
         <v>43829</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.005513222015910807</v>
+        <v>-0.005513224978771047</v>
       </c>
       <c r="C436" t="n">
         <v>-0.004632106166987726</v>
       </c>
       <c r="D436" t="n">
-        <v>-0.006202941444521715</v>
+        <v>-0.006202941444521604</v>
       </c>
     </row>
     <row r="437">
@@ -6489,7 +6489,7 @@
         <v>43830</v>
       </c>
       <c r="B437" t="n">
-        <v>0.002429297408486469</v>
+        <v>0.00242936883079171</v>
       </c>
       <c r="C437" t="n">
         <v>4.162867693557892e-05</v>
@@ -6503,13 +6503,13 @@
         <v>43832</v>
       </c>
       <c r="B438" t="n">
-        <v>0.00935192289385465</v>
+        <v>0.009351846396940738</v>
       </c>
       <c r="C438" t="n">
         <v>0.007237490993172946</v>
       </c>
       <c r="D438" t="n">
-        <v>0.001956260505233454</v>
+        <v>0.001956260505233232</v>
       </c>
     </row>
     <row r="439">
@@ -6517,7 +6517,7 @@
         <v>43833</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.007572233484322718</v>
+        <v>-0.007572171278782622</v>
       </c>
       <c r="C439" t="n">
         <v>-0.002249774841651009</v>
@@ -6531,13 +6531,13 @@
         <v>43836</v>
       </c>
       <c r="B440" t="n">
-        <v>0.003815052176908243</v>
+        <v>0.003815068900561291</v>
       </c>
       <c r="C440" t="n">
         <v>0.001641246432119603</v>
       </c>
       <c r="D440" t="n">
-        <v>0.002363130258281609</v>
+        <v>0.002363130258281831</v>
       </c>
     </row>
     <row r="441">
@@ -6545,7 +6545,7 @@
         <v>43837</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.002811777348044834</v>
+        <v>-0.002811796455469299</v>
       </c>
       <c r="C441" t="n">
         <v>-0.002558625428833894</v>
@@ -6559,7 +6559,7 @@
         <v>43838</v>
       </c>
       <c r="B442" t="n">
-        <v>0.005329536027487662</v>
+        <v>0.005329533320474279</v>
       </c>
       <c r="C442" t="n">
         <v>0.002338441646943856</v>
@@ -6573,7 +6573,7 @@
         <v>43839</v>
       </c>
       <c r="B443" t="n">
-        <v>0.006780649119067743</v>
+        <v>0.006780594232565459</v>
       </c>
       <c r="C443" t="n">
         <v>0.004894045532590763</v>
@@ -6587,13 +6587,13 @@
         <v>43840</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.002877705369571008</v>
+        <v>-0.002877727176965497</v>
       </c>
       <c r="C444" t="n">
         <v>-0.0001330895647881913</v>
       </c>
       <c r="D444" t="n">
-        <v>0.001000836996984056</v>
+        <v>0.001000836996983834</v>
       </c>
     </row>
     <row r="445">
@@ -6601,7 +6601,7 @@
         <v>43843</v>
       </c>
       <c r="B445" t="n">
-        <v>0.006877347366428789</v>
+        <v>0.006877424274781181</v>
       </c>
       <c r="C445" t="n">
         <v>0.003129422403732374</v>
@@ -6615,13 +6615,13 @@
         <v>43844</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.001524622599142809</v>
+        <v>-0.001524636029226155</v>
       </c>
       <c r="C446" t="n">
         <v>0.0005496455631450736</v>
       </c>
       <c r="D446" t="n">
-        <v>0.003656539028042305</v>
+        <v>0.003656539028042527</v>
       </c>
     </row>
     <row r="447">
@@ -6629,7 +6629,7 @@
         <v>43845</v>
       </c>
       <c r="B447" t="n">
-        <v>0.002259857098148889</v>
+        <v>0.002259797635121775</v>
       </c>
       <c r="C447" t="n">
         <v>0.003127280606858296</v>
@@ -6643,13 +6643,13 @@
         <v>43846</v>
       </c>
       <c r="B448" t="n">
-        <v>0.008318385587676549</v>
+        <v>0.008318442902478481</v>
       </c>
       <c r="C448" t="n">
         <v>0.00460527349303641</v>
       </c>
       <c r="D448" t="n">
-        <v>0.002215800296730741</v>
+        <v>0.002215800296730519</v>
       </c>
     </row>
     <row r="449">
@@ -6657,7 +6657,7 @@
         <v>43847</v>
       </c>
       <c r="B449" t="n">
-        <v>0.003112530936488083</v>
+        <v>0.003112560229163144</v>
       </c>
       <c r="C449" t="n">
         <v>0.000664582451700868</v>
@@ -6671,13 +6671,13 @@
         <v>43851</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.001958199699227881</v>
+        <v>-0.001958134086394191</v>
       </c>
       <c r="C450" t="n">
         <v>0.0008147849884057035</v>
       </c>
       <c r="D450" t="n">
-        <v>0.001789375092198453</v>
+        <v>0.001789375092198675</v>
       </c>
     </row>
     <row r="451">
@@ -6685,7 +6685,7 @@
         <v>43852</v>
       </c>
       <c r="B451" t="n">
-        <v>0.0001207622891518987</v>
+        <v>0.0001207040480061497</v>
       </c>
       <c r="C451" t="n">
         <v>0.0007887805355029087</v>
@@ -6699,7 +6699,7 @@
         <v>43853</v>
       </c>
       <c r="B452" t="n">
-        <v>0.001146872961346273</v>
+        <v>0.001146875747621082</v>
       </c>
       <c r="C452" t="n">
         <v>0.001538652727866019</v>
@@ -6713,7 +6713,7 @@
         <v>43854</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.008893079091328351</v>
+        <v>-0.008893092535750827</v>
       </c>
       <c r="C453" t="n">
         <v>-0.004985280562779248</v>
@@ -6727,7 +6727,7 @@
         <v>43857</v>
       </c>
       <c r="B454" t="n">
-        <v>-0.01602941019489684</v>
+        <v>-0.01602938021042776</v>
       </c>
       <c r="C454" t="n">
         <v>-0.006955932037398083</v>
@@ -6741,7 +6741,7 @@
         <v>43858</v>
       </c>
       <c r="B455" t="n">
-        <v>0.01047917974787481</v>
+        <v>0.01047910626328414</v>
       </c>
       <c r="C455" t="n">
         <v>0.004850340190384994</v>
@@ -6755,7 +6755,7 @@
         <v>43859</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.0008260256329346726</v>
+        <v>-0.0008260505286751679</v>
       </c>
       <c r="C456" t="n">
         <v>0.001218818031038849</v>
@@ -6769,7 +6769,7 @@
         <v>43860</v>
       </c>
       <c r="B457" t="n">
-        <v>0.003245354156022919</v>
+        <v>0.003245386628157514</v>
       </c>
       <c r="C457" t="n">
         <v>0.001358333793146427</v>
@@ -6783,7 +6783,7 @@
         <v>43861</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.0181579035108813</v>
+        <v>-0.01815790337846338</v>
       </c>
       <c r="C458" t="n">
         <v>-0.01000824158242775</v>
@@ -6797,7 +6797,7 @@
         <v>43864</v>
       </c>
       <c r="B459" t="n">
-        <v>0.00742853961162155</v>
+        <v>0.007428533807562488</v>
       </c>
       <c r="C459" t="n">
         <v>0.003846429895883352</v>
@@ -6811,13 +6811,13 @@
         <v>43865</v>
       </c>
       <c r="B460" t="n">
-        <v>0.01524127642794812</v>
+        <v>0.01524131229598527</v>
       </c>
       <c r="C460" t="n">
         <v>0.007429543489011925</v>
       </c>
       <c r="D460" t="n">
-        <v>0.006718354434352758</v>
+        <v>0.006718354434352536</v>
       </c>
     </row>
     <row r="461">
@@ -6825,13 +6825,13 @@
         <v>43866</v>
       </c>
       <c r="B461" t="n">
-        <v>0.01154800893807248</v>
+        <v>0.01154803526550793</v>
       </c>
       <c r="C461" t="n">
         <v>0.006212881352289923</v>
       </c>
       <c r="D461" t="n">
-        <v>0.008349151464166482</v>
+        <v>0.008349151464166704</v>
       </c>
     </row>
     <row r="462">
@@ -6839,7 +6839,7 @@
         <v>43867</v>
       </c>
       <c r="B462" t="n">
-        <v>0.00336485514647448</v>
+        <v>0.003364800258172419</v>
       </c>
       <c r="C462" t="n">
         <v>0.002770314317735334</v>
@@ -6853,7 +6853,7 @@
         <v>43868</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.005329656628371515</v>
+        <v>-0.005329659353048112</v>
       </c>
       <c r="C463" t="n">
         <v>-0.001372222544012924</v>
@@ -6867,7 +6867,7 @@
         <v>43871</v>
       </c>
       <c r="B464" t="n">
-        <v>0.007465323231849988</v>
+        <v>0.007465325472783837</v>
       </c>
       <c r="C464" t="n">
         <v>0.005339820686961261</v>
@@ -6881,7 +6881,7 @@
         <v>43872</v>
       </c>
       <c r="B465" t="n">
-        <v>0.001733049786473604</v>
+        <v>0.001733039825737926</v>
       </c>
       <c r="C465" t="n">
         <v>0.0004307402067904587</v>
@@ -6895,7 +6895,7 @@
         <v>43873</v>
       </c>
       <c r="B466" t="n">
-        <v>0.006442771577855049</v>
+        <v>0.006442777163708451</v>
       </c>
       <c r="C466" t="n">
         <v>0.002866499797050226</v>
@@ -6909,7 +6909,7 @@
         <v>43874</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.001066966554483082</v>
+        <v>-0.001066998398360202</v>
       </c>
       <c r="C467" t="n">
         <v>-0.0002724362791167723</v>
@@ -6923,7 +6923,7 @@
         <v>43875</v>
       </c>
       <c r="B468" t="n">
-        <v>0.001602114011847405</v>
+        <v>0.001602161413165824</v>
       </c>
       <c r="C468" t="n">
         <v>0.001766379064896517</v>
@@ -6937,7 +6937,7 @@
         <v>43879</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.002576999708112388</v>
+        <v>-0.002577075263420052</v>
       </c>
       <c r="C469" t="n">
         <v>-0.0005310292040768827</v>
@@ -6951,7 +6951,7 @@
         <v>43880</v>
       </c>
       <c r="B470" t="n">
-        <v>0.004781235111318511</v>
+        <v>0.004781344962607372</v>
       </c>
       <c r="C470" t="n">
         <v>0.003045794875645713</v>
@@ -6965,7 +6965,7 @@
         <v>43881</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.004108246574168656</v>
+        <v>-0.004108305889495201</v>
       </c>
       <c r="C471" t="n">
         <v>-0.001293529715682862</v>
@@ -6979,7 +6979,7 @@
         <v>43882</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.01029826708708075</v>
+        <v>-0.01029826491004288</v>
       </c>
       <c r="C472" t="n">
         <v>-0.004086170426225388</v>
@@ -6993,7 +6993,7 @@
         <v>43885</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.03316539880720822</v>
+        <v>-0.03316532598249167</v>
       </c>
       <c r="C473" t="n">
         <v>-0.01851466264688373</v>
@@ -7007,7 +7007,7 @@
         <v>43886</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.03030214975609696</v>
+        <v>-0.03030224210332344</v>
       </c>
       <c r="C474" t="n">
         <v>-0.01826711445597995</v>
@@ -7021,7 +7021,7 @@
         <v>43887</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.003678214997391389</v>
+        <v>-0.003678158652518638</v>
       </c>
       <c r="C475" t="n">
         <v>-0.002915516761077264</v>
@@ -7035,7 +7035,7 @@
         <v>43888</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.04491168614566613</v>
+        <v>-0.04491175086621911</v>
       </c>
       <c r="C476" t="n">
         <v>-0.02547365944704072</v>
@@ -7049,7 +7049,7 @@
         <v>43889</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.004201539306138761</v>
+        <v>-0.004201421152131013</v>
       </c>
       <c r="C477" t="n">
         <v>0.001608139658007879</v>
@@ -7063,7 +7063,7 @@
         <v>43892</v>
       </c>
       <c r="B478" t="n">
-        <v>0.04330650830132487</v>
+        <v>0.04330638966540404</v>
       </c>
       <c r="C478" t="n">
         <v>0.024702145953025</v>
@@ -7077,7 +7077,7 @@
         <v>43893</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.02863245724019158</v>
+        <v>-0.02863240224176992</v>
       </c>
       <c r="C479" t="n">
         <v>-0.01389827762478379</v>
@@ -7091,13 +7091,13 @@
         <v>43894</v>
       </c>
       <c r="B480" t="n">
-        <v>0.04203302533861665</v>
+        <v>0.04203299315725016</v>
       </c>
       <c r="C480" t="n">
         <v>0.02519284371238406</v>
       </c>
       <c r="D480" t="n">
-        <v>0.02604156154553672</v>
+        <v>0.0260415615455365</v>
       </c>
     </row>
     <row r="481">
@@ -7105,13 +7105,13 @@
         <v>43895</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.03324168760283564</v>
+        <v>-0.03324164639919285</v>
       </c>
       <c r="C481" t="n">
         <v>-0.01552607695038366</v>
       </c>
       <c r="D481" t="n">
-        <v>-0.008840066042371308</v>
+        <v>-0.008840066042371086</v>
       </c>
     </row>
     <row r="482">
@@ -7119,7 +7119,7 @@
         <v>43896</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.016531112018968</v>
+        <v>-0.01653115561512802</v>
       </c>
       <c r="C482" t="n">
         <v>4.825853012024872e-05</v>
@@ -7133,7 +7133,7 @@
         <v>43899</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.07809447030209489</v>
+        <v>-0.0780944163871882</v>
       </c>
       <c r="C483" t="n">
         <v>-0.04137960510595451</v>
@@ -7147,7 +7147,7 @@
         <v>43900</v>
       </c>
       <c r="B484" t="n">
-        <v>0.05174489250964476</v>
+        <v>0.05174494940466353</v>
       </c>
       <c r="C484" t="n">
         <v>0.01699555527894092</v>
@@ -7161,7 +7161,7 @@
         <v>43901</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.04874844817138431</v>
+        <v>-0.04874855858651649</v>
       </c>
       <c r="C485" t="n">
         <v>-0.03863481111362355</v>
@@ -7175,7 +7175,7 @@
         <v>43902</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.09567716191402487</v>
+        <v>-0.09567710919790737</v>
       </c>
       <c r="C486" t="n">
         <v>-0.06717922431857848</v>
@@ -7189,7 +7189,7 @@
         <v>43903</v>
       </c>
       <c r="B487" t="n">
-        <v>0.08548630309818422</v>
+        <v>0.08548626472870013</v>
       </c>
       <c r="C487" t="n">
         <v>0.05448345886073769</v>
@@ -7203,7 +7203,7 @@
         <v>43906</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.1094237354049449</v>
+        <v>-0.1094237261203373</v>
       </c>
       <c r="C488" t="n">
         <v>-0.05153222212809427</v>
@@ -7217,7 +7217,7 @@
         <v>43907</v>
       </c>
       <c r="B489" t="n">
-        <v>0.05399206428476456</v>
+        <v>0.05399206463521791</v>
       </c>
       <c r="C489" t="n">
         <v>0.01380495726087161</v>
@@ -7231,7 +7231,7 @@
         <v>43908</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.05063292285299998</v>
+        <v>-0.05063290598900411</v>
       </c>
       <c r="C490" t="n">
         <v>-0.04318424265883392</v>
@@ -7245,7 +7245,7 @@
         <v>43909</v>
       </c>
       <c r="B491" t="n">
-        <v>0.002124977111816406</v>
+        <v>0.002124910787598013</v>
       </c>
       <c r="C491" t="n">
         <v>0.003748134767943112</v>
@@ -7259,7 +7259,7 @@
         <v>43910</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.04868816981634955</v>
+        <v>-0.04309413647509586</v>
       </c>
       <c r="C492" t="n">
         <v>-0.0107508342279109</v>
@@ -7273,7 +7273,7 @@
         <v>43913</v>
       </c>
       <c r="B493" t="n">
-        <v>-0.02556820815335509</v>
+        <v>-0.02556819000088486</v>
       </c>
       <c r="C493" t="n">
         <v>-0.003407754219677428</v>
@@ -7287,7 +7287,7 @@
         <v>43914</v>
       </c>
       <c r="B494" t="n">
-        <v>0.09060326182884683</v>
+        <v>0.09060326584399028</v>
       </c>
       <c r="C494" t="n">
         <v>0.04480635343093442</v>
@@ -7301,7 +7301,7 @@
         <v>43915</v>
       </c>
       <c r="B495" t="n">
-        <v>0.014970180880194</v>
+        <v>0.01497012781761826</v>
       </c>
       <c r="C495" t="n">
         <v>0.01125745520246468</v>
@@ -7315,7 +7315,7 @@
         <v>43916</v>
       </c>
       <c r="B496" t="n">
-        <v>0.0583898023133831</v>
+        <v>0.05838977860140399</v>
       </c>
       <c r="C496" t="n">
         <v>0.03551750903485518</v>
@@ -7329,7 +7329,7 @@
         <v>43917</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.0297856572530302</v>
+        <v>-0.02978559413586926</v>
       </c>
       <c r="C497" t="n">
         <v>-0.01082698488915879</v>
@@ -7343,7 +7343,7 @@
         <v>43920</v>
       </c>
       <c r="B498" t="n">
-        <v>0.03247571536186518</v>
+        <v>0.03247572113302853</v>
       </c>
       <c r="C498" t="n">
         <v>0.01826020179640997</v>
@@ -7357,7 +7357,7 @@
         <v>43921</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.01490538500844497</v>
+        <v>-0.01490537398272762</v>
       </c>
       <c r="C499" t="n">
         <v>-0.0114422762225016</v>
@@ -7371,7 +7371,7 @@
         <v>43922</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.04500487334050679</v>
+        <v>-0.04500491619165679</v>
       </c>
       <c r="C500" t="n">
         <v>-0.02251332271563911</v>
@@ -7385,7 +7385,7 @@
         <v>43923</v>
       </c>
       <c r="B501" t="n">
-        <v>0.02307539335937979</v>
+        <v>0.02307538854348381</v>
       </c>
       <c r="C501" t="n">
         <v>0.01558486115280644</v>
@@ -7399,7 +7399,7 @@
         <v>43924</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.01445419276171235</v>
+        <v>-0.01445414214129328</v>
       </c>
       <c r="C502" t="n">
         <v>-0.007491285785157675</v>
@@ -7413,7 +7413,7 @@
         <v>43927</v>
       </c>
       <c r="B503" t="n">
-        <v>0.06716621437679292</v>
+        <v>0.06716618139784983</v>
       </c>
       <c r="C503" t="n">
         <v>0.03705695090261174</v>
@@ -7427,7 +7427,7 @@
         <v>43928</v>
       </c>
       <c r="B504" t="n">
-        <v>0.001019480277066349</v>
+        <v>0.001019453166200971</v>
       </c>
       <c r="C504" t="n">
         <v>-0.001647361313009466</v>
@@ -7441,7 +7441,7 @@
         <v>43929</v>
       </c>
       <c r="B505" t="n">
-        <v>0.03356841448563384</v>
+        <v>0.03356838536664072</v>
       </c>
       <c r="C505" t="n">
         <v>0.01939116615546443</v>
@@ -7455,7 +7455,7 @@
         <v>43930</v>
       </c>
       <c r="B506" t="n">
-        <v>0.01521736104189416</v>
+        <v>0.01521743726253711</v>
       </c>
       <c r="C506" t="n">
         <v>0.01110823416453943</v>
@@ -7469,7 +7469,7 @@
         <v>43934</v>
       </c>
       <c r="B507" t="n">
-        <v>-0.0091301525286478</v>
+        <v>-0.009130225058774923</v>
       </c>
       <c r="C507" t="n">
         <v>-0.007590603539462282</v>
@@ -7483,7 +7483,7 @@
         <v>43935</v>
       </c>
       <c r="B508" t="n">
-        <v>0.02949287083656091</v>
+        <v>0.02949289417141789</v>
       </c>
       <c r="C508" t="n">
         <v>0.01759435610341775</v>
@@ -7497,7 +7497,7 @@
         <v>43936</v>
       </c>
       <c r="B509" t="n">
-        <v>-0.02124810105265694</v>
+        <v>-0.02124806987922846</v>
       </c>
       <c r="C509" t="n">
         <v>-0.006072983878970706</v>
@@ -7511,7 +7511,7 @@
         <v>43937</v>
       </c>
       <c r="B510" t="n">
-        <v>0.004824295401707824</v>
+        <v>0.004824337162646841</v>
       </c>
       <c r="C510" t="n">
         <v>0.006126725426170765</v>
@@ -7525,7 +7525,7 @@
         <v>43938</v>
       </c>
       <c r="B511" t="n">
-        <v>0.02701543668947594</v>
+        <v>0.02701537974933776</v>
       </c>
       <c r="C511" t="n">
         <v>0.01287818188192369</v>
@@ -7539,7 +7539,7 @@
         <v>43941</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.01761798092544998</v>
+        <v>-0.01761798254562813</v>
       </c>
       <c r="C512" t="n">
         <v>-0.008826175061378283</v>
@@ -7553,7 +7553,7 @@
         <v>43942</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.03036325119557618</v>
+        <v>-0.03036319624187713</v>
       </c>
       <c r="C513" t="n">
         <v>-0.0156118339433966</v>
@@ -7567,7 +7567,7 @@
         <v>43943</v>
       </c>
       <c r="B514" t="n">
-        <v>0.02219454061288871</v>
+        <v>0.02219454103919991</v>
       </c>
       <c r="C514" t="n">
         <v>0.01049355905099425</v>
@@ -7581,7 +7581,7 @@
         <v>43944</v>
       </c>
       <c r="B515" t="n">
-        <v>-7.172888144823236e-05</v>
+        <v>-7.182487908380448e-05</v>
       </c>
       <c r="C515" t="n">
         <v>0.001635316797596209</v>
@@ -7595,7 +7595,7 @@
         <v>43945</v>
       </c>
       <c r="B516" t="n">
-        <v>0.01393870874158943</v>
+        <v>0.01393876170725284</v>
       </c>
       <c r="C516" t="n">
         <v>0.008470139526446374</v>
@@ -7609,7 +7609,7 @@
         <v>43948</v>
       </c>
       <c r="B517" t="n">
-        <v>0.01441844207748167</v>
+        <v>0.01441841491134495</v>
       </c>
       <c r="C517" t="n">
         <v>0.004524580937678824</v>
@@ -7623,7 +7623,7 @@
         <v>43949</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.004598421399664514</v>
+        <v>-0.004598368600520051</v>
       </c>
       <c r="C518" t="n">
         <v>-0.001429085513344086</v>
@@ -7637,13 +7637,13 @@
         <v>43950</v>
       </c>
       <c r="B519" t="n">
-        <v>0.02617849081701085</v>
+        <v>0.02617847664287293</v>
       </c>
       <c r="C519" t="n">
         <v>0.0133662139036117</v>
       </c>
       <c r="D519" t="n">
-        <v>0.003452140532190118</v>
+        <v>0.003452140532189896</v>
       </c>
     </row>
     <row r="520">
@@ -7651,13 +7651,13 @@
         <v>43951</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.009310666581320277</v>
+        <v>-0.009310659525957551</v>
       </c>
       <c r="C520" t="n">
         <v>-0.00727567126866191</v>
       </c>
       <c r="D520" t="n">
-        <v>-0.002569163834933108</v>
+        <v>-0.002569163834932886</v>
       </c>
     </row>
     <row r="521">
@@ -7665,7 +7665,7 @@
         <v>43952</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.02647343070283825</v>
+        <v>-0.0264734329695024</v>
       </c>
       <c r="C521" t="n">
         <v>-0.0146945213820171</v>
@@ -7679,7 +7679,7 @@
         <v>43955</v>
       </c>
       <c r="B522" t="n">
-        <v>0.002758226089069799</v>
+        <v>0.002758224053595414</v>
       </c>
       <c r="C522" t="n">
         <v>0.000861213330258348</v>
@@ -7693,7 +7693,7 @@
         <v>43956</v>
       </c>
       <c r="B523" t="n">
-        <v>0.009239323798415458</v>
+        <v>0.009239339159606676</v>
       </c>
       <c r="C523" t="n">
         <v>0.005181170233389931</v>
@@ -7707,7 +7707,7 @@
         <v>43957</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.006778721915009734</v>
+        <v>-0.006778777324576431</v>
       </c>
       <c r="C524" t="n">
         <v>-0.007900853779700401</v>
@@ -7721,7 +7721,7 @@
         <v>43958</v>
       </c>
       <c r="B525" t="n">
-        <v>0.01206681680134125</v>
+        <v>0.0120668636797669</v>
       </c>
       <c r="C525" t="n">
         <v>0.009665696640504873</v>
@@ -7735,7 +7735,7 @@
         <v>43959</v>
       </c>
       <c r="B526" t="n">
-        <v>0.01654619677006731</v>
+        <v>0.01654613012108065</v>
       </c>
       <c r="C526" t="n">
         <v>0.006284821718264721</v>
@@ -7749,7 +7749,7 @@
         <v>43962</v>
       </c>
       <c r="B527" t="n">
-        <v>0.0002051619412285131</v>
+        <v>0.0002052262682495992</v>
       </c>
       <c r="C527" t="n">
         <v>-0.0005124175716102464</v>
@@ -7763,7 +7763,7 @@
         <v>43963</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.01993157802483974</v>
+        <v>-0.01993157663696456</v>
       </c>
       <c r="C528" t="n">
         <v>-0.00935662808364579</v>
@@ -7777,7 +7777,7 @@
         <v>43964</v>
       </c>
       <c r="B529" t="n">
-        <v>-0.01768586558320593</v>
+        <v>-0.01768585269716063</v>
       </c>
       <c r="C529" t="n">
         <v>-0.008685668436888894</v>
@@ -7791,7 +7791,7 @@
         <v>43965</v>
       </c>
       <c r="B530" t="n">
-        <v>0.01196731194653702</v>
+        <v>0.01196729175367802</v>
       </c>
       <c r="C530" t="n">
         <v>0.009247353208931663</v>
@@ -7805,7 +7805,7 @@
         <v>43966</v>
       </c>
       <c r="B531" t="n">
-        <v>0.0045969665332569</v>
+        <v>0.00459697418033911</v>
       </c>
       <c r="C531" t="n">
         <v>0.002750890466210132</v>
@@ -7819,7 +7819,7 @@
         <v>43969</v>
       </c>
       <c r="B532" t="n">
-        <v>0.03045969420806682</v>
+        <v>0.03045968279787313</v>
       </c>
       <c r="C532" t="n">
         <v>0.01251226143395634</v>
@@ -7833,7 +7833,7 @@
         <v>43970</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.01027118230270127</v>
+        <v>-0.01027118283395371</v>
       </c>
       <c r="C533" t="n">
         <v>-0.00549031755320406</v>
@@ -7847,7 +7847,7 @@
         <v>43971</v>
       </c>
       <c r="B534" t="n">
-        <v>0.01698801737966503</v>
+        <v>0.01698802648425949</v>
       </c>
       <c r="C534" t="n">
         <v>0.01009667649006873</v>
@@ -7861,7 +7861,7 @@
         <v>43972</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.006903943163488835</v>
+        <v>-0.006903974978045711</v>
       </c>
       <c r="C535" t="n">
         <v>-0.003594853183524482</v>
@@ -7875,7 +7875,7 @@
         <v>43973</v>
       </c>
       <c r="B536" t="n">
-        <v>0.001899069280117169</v>
+        <v>0.001899110557235627</v>
       </c>
       <c r="C536" t="n">
         <v>0.0021791625069294</v>
@@ -7889,13 +7889,13 @@
         <v>43977</v>
       </c>
       <c r="B537" t="n">
-        <v>0.01232055273754367</v>
+        <v>0.01232050877293638</v>
       </c>
       <c r="C537" t="n">
         <v>0.004130912029230105</v>
       </c>
       <c r="D537" t="n">
-        <v>-0.001145441569829209</v>
+        <v>-0.001145441569829431</v>
       </c>
     </row>
     <row r="538">
@@ -7903,13 +7903,13 @@
         <v>43978</v>
       </c>
       <c r="B538" t="n">
-        <v>0.01487900363388578</v>
+        <v>0.01487899078793705</v>
       </c>
       <c r="C538" t="n">
         <v>0.008513311435026871</v>
       </c>
       <c r="D538" t="n">
-        <v>0.005059590278600368</v>
+        <v>0.00505959027860059</v>
       </c>
     </row>
     <row r="539">
@@ -7917,7 +7917,7 @@
         <v>43979</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.001844949628853444</v>
+        <v>-0.001844888772464795</v>
       </c>
       <c r="C539" t="n">
         <v>-0.0004870866260153761</v>
@@ -7931,7 +7931,7 @@
         <v>43980</v>
       </c>
       <c r="B540" t="n">
-        <v>0.004455906849114716</v>
+        <v>0.004455888043827412</v>
       </c>
       <c r="C540" t="n">
         <v>0.0050336104068609</v>
@@ -7945,13 +7945,13 @@
         <v>43983</v>
       </c>
       <c r="B541" t="n">
-        <v>0.004041733830006103</v>
+        <v>0.004041691864079415</v>
       </c>
       <c r="C541" t="n">
         <v>-0.0004373490798704749</v>
       </c>
       <c r="D541" t="n">
-        <v>-0.006119570788904238</v>
+        <v>-0.006119570788904349</v>
       </c>
     </row>
     <row r="542">
@@ -7959,13 +7959,13 @@
         <v>43984</v>
       </c>
       <c r="B542" t="n">
-        <v>0.008280146883890973</v>
+        <v>0.008280169475627722</v>
       </c>
       <c r="C542" t="n">
         <v>0.0045138576712489</v>
       </c>
       <c r="D542" t="n">
-        <v>0.003146604506932826</v>
+        <v>0.003146604506933048</v>
       </c>
     </row>
     <row r="543">
@@ -7973,13 +7973,13 @@
         <v>43985</v>
       </c>
       <c r="B543" t="n">
-        <v>0.01330825201965495</v>
+        <v>0.01330821460888962</v>
       </c>
       <c r="C543" t="n">
         <v>0.004515357447239854</v>
       </c>
       <c r="D543" t="n">
-        <v>-0.002122747927560842</v>
+        <v>-0.002122747927561064</v>
       </c>
     </row>
     <row r="544">
@@ -7987,13 +7987,13 @@
         <v>43986</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.002626713253435109</v>
+        <v>-0.002626686415253476</v>
       </c>
       <c r="C544" t="n">
         <v>-0.004691042029966175</v>
       </c>
       <c r="D544" t="n">
-        <v>-0.00500155614827158</v>
+        <v>-0.005001556148271358</v>
       </c>
     </row>
     <row r="545">
@@ -8001,7 +8001,7 @@
         <v>43987</v>
       </c>
       <c r="B545" t="n">
-        <v>0.02562953289363032</v>
+        <v>0.02562959843346237</v>
       </c>
       <c r="C545" t="n">
         <v>0.01410891657101687</v>
@@ -8015,7 +8015,7 @@
         <v>43990</v>
       </c>
       <c r="B546" t="n">
-        <v>0.01208748015721895</v>
+        <v>0.0120873997807893</v>
       </c>
       <c r="C546" t="n">
         <v>0.007950461619733673</v>
@@ -8029,7 +8029,7 @@
         <v>43991</v>
       </c>
       <c r="B547" t="n">
-        <v>-0.007456694217466819</v>
+        <v>-0.007456694034274901</v>
       </c>
       <c r="C547" t="n">
         <v>-0.003145234774447836</v>
@@ -8043,7 +8043,7 @@
         <v>43992</v>
       </c>
       <c r="B548" t="n">
-        <v>-0.005580000926591238</v>
+        <v>-0.005579999678947928</v>
       </c>
       <c r="C548" t="n">
         <v>-0.0001240846950961716</v>
@@ -8057,7 +8057,7 @@
         <v>43993</v>
       </c>
       <c r="B549" t="n">
-        <v>-0.05764894874118338</v>
+        <v>-0.05764887250107954</v>
       </c>
       <c r="C549" t="n">
         <v>-0.033365358678903</v>
@@ -8071,7 +8071,7 @@
         <v>43994</v>
       </c>
       <c r="B550" t="n">
-        <v>0.01197567039998831</v>
+        <v>0.01197565347446185</v>
       </c>
       <c r="C550" t="n">
         <v>0.005613807610776789</v>
@@ -8085,7 +8085,7 @@
         <v>43997</v>
       </c>
       <c r="B551" t="n">
-        <v>0.00933564451419407</v>
+        <v>0.009335616799293962</v>
       </c>
       <c r="C551" t="n">
         <v>0.005727025401065511</v>
@@ -8099,7 +8099,7 @@
         <v>43998</v>
       </c>
       <c r="B552" t="n">
-        <v>0.01924769222298178</v>
+        <v>0.01924763999036869</v>
       </c>
       <c r="C552" t="n">
         <v>0.009576546166139011</v>
@@ -8113,13 +8113,13 @@
         <v>43999</v>
       </c>
       <c r="B553" t="n">
-        <v>-0.004153846588902878</v>
+        <v>-0.004153810985194917</v>
       </c>
       <c r="C553" t="n">
         <v>-0.001675242673032762</v>
       </c>
       <c r="D553" t="n">
-        <v>-0.0003436443883257922</v>
+        <v>-0.0003436443883260143</v>
       </c>
     </row>
     <row r="554">
@@ -8127,13 +8127,13 @@
         <v>44000</v>
       </c>
       <c r="B554" t="n">
-        <v>0.0003850193023728332</v>
+        <v>0.000385041657770057</v>
       </c>
       <c r="C554" t="n">
         <v>0.001780143994772665</v>
       </c>
       <c r="D554" t="n">
-        <v>-0.0009743932838972569</v>
+        <v>-0.0009743932838971459</v>
       </c>
     </row>
     <row r="555">
@@ -8141,13 +8141,83 @@
         <v>44001</v>
       </c>
       <c r="B555" t="n">
-        <v>-0.01007115319505184</v>
+        <v>-0.005714905925746925</v>
       </c>
       <c r="C555" t="n">
         <v>-0.004551857835164097</v>
       </c>
       <c r="D555" t="n">
         <v>0.00465315256888621</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.00641517747141548</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.002797307251706238</v>
+      </c>
+      <c r="D556" t="n">
+        <v>-0.003936274337723367</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.00460367232715253</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.001682997297856259</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.001758076178991264</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.02550870618959685</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-0.01415920213606514</v>
+      </c>
+      <c r="D558" t="n">
+        <v>-0.01211085696606218</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.01072054261858266</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.007141104270576459</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.005067024490135186</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.02238491864709875</v>
+      </c>
+      <c r="C560" t="n">
+        <v>-0.01164403267644842</v>
+      </c>
+      <c r="D560" t="n">
+        <v>-0.003776819123052055</v>
       </c>
     </row>
   </sheetData>
